--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3049ED-563E-40AA-ADDA-AD2C01C3B001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3699A4C-B5CC-4121-9DED-A41ADEDAC35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,37 @@
   </si>
   <si>
     <t>与、或的优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划、01背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意数组压缩后，背包j是倒序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1049.最后一块石头的重量II</t>
+  </si>
+  <si>
+    <t>做题次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计算target的时候，target = sum / 2 因为是向下取整，所以sum - dp[target] 一定是大于等于dp[target]的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,12 +204,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -189,6 +223,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -213,9 +250,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -230,15 +264,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="A1:F1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -507,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -521,10 +556,11 @@
     <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="32.640625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +579,11 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -563,19 +602,69 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
+    <hyperlink ref="E3" r:id="rId4" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3699A4C-B5CC-4121-9DED-A41ADEDAC35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF155230-5FD7-4DD0-B535-F5EC062ABDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,26 @@
   </si>
   <si>
     <t>在计算target的时候，target = sum / 2 因为是向下取整，所以sum - dp[target] 一定是大于等于dp[target]的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1154. 一年中的第几天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer.parseInt(date.substring(0, 4));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -652,6 +672,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -661,10 +704,12 @@
     <hyperlink ref="E3" r:id="rId4" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
     <hyperlink ref="A4" r:id="rId5" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF155230-5FD7-4DD0-B535-F5EC062ABDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E58F87-5A56-456A-8A97-6DC5EF85F19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,25 @@
   </si>
   <si>
     <t>Integer.parseInt(date.substring(0, 4));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1599. 经营摩天轮的最大利润</t>
+  </si>
+  <si>
+    <t>数组、模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +238,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -695,6 +715,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -706,10 +746,12 @@
     <hyperlink ref="E4" r:id="rId6" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
     <hyperlink ref="A5" r:id="rId7" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E58F87-5A56-456A-8A97-6DC5EF85F19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A0117-251C-49B2-9FB2-1D7CE584D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>466. 统计重复个数</t>
+  </si>
+  <si>
+    <t>动态规划、字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liqing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -735,6 +750,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -748,10 +783,12 @@
     <hyperlink ref="E5" r:id="rId8" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
     <hyperlink ref="A6" r:id="rId9" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
     <hyperlink ref="E6" r:id="rId10" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A0117-251C-49B2-9FB2-1D7CE584D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E4B4A-1A97-4D37-97D8-1B603D009425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,15 +148,23 @@
     <t>466. 统计重复个数</t>
   </si>
   <si>
-    <t>动态规划、字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.01.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方题解视频 07'00''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -755,19 +763,27 @@
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E4B4A-1A97-4D37-97D8-1B603D009425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E77F0F-3432-4CEC-87D9-795E3B54CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,15 +156,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官方题解视频 07'00''</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>循环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2487. 从链表中移除节点</t>
+  </si>
+  <si>
+    <t>2024.01.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈、链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deque&lt;ListNode&gt; stack = new ArrayDeque&lt;ListNode&gt;();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +619,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -763,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>29</v>
@@ -775,15 +786,33 @@
         <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +830,12 @@
     <hyperlink ref="E6" r:id="rId10" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
     <hyperlink ref="A7" r:id="rId11" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
     <hyperlink ref="E7" r:id="rId12" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="A8" r:id="rId13" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E77F0F-3432-4CEC-87D9-795E3B54CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF9A37-B8E8-4713-BEA9-D2F508F47871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,25 @@
   </si>
   <si>
     <t xml:space="preserve"> Deque&lt;ListNode&gt; stack = new ArrayDeque&lt;ListNode&gt;();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2397. 被列覆盖的最多行数</t>
+  </si>
+  <si>
+    <t>Integer.bitCount(mask)。Gosper's Hack： 找到二进制串里的最后一个“01”，把他变成“10”，就是当前组合的下一个组合。还不够完整，01变成10之后，需要把10右边所有的1都往右移动到底。例如0101110，01变10之后就是0110110，移动到底变成0110011。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、Gosper's Hack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -676,9 +695,6 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
@@ -699,9 +715,6 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
@@ -722,9 +735,6 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
@@ -745,9 +755,6 @@
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
@@ -765,9 +772,6 @@
       <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
@@ -788,9 +792,6 @@
       <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
@@ -811,8 +812,25 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
+    </row>
+    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -832,10 +850,12 @@
     <hyperlink ref="E7" r:id="rId12" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
     <hyperlink ref="A8" r:id="rId13" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
     <hyperlink ref="E8" r:id="rId14" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="A9" r:id="rId15" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF9A37-B8E8-4713-BEA9-D2F508F47871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB81083F-0A96-4950-B693-B03291846F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,40 @@
   </si>
   <si>
     <t>⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2807. 在链表中插入最大公约数</t>
+  </si>
+  <si>
+    <t>2024.01.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383. 赎金信</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(char c : magazine.toCharArray()) {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -831,6 +865,46 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +926,14 @@
     <hyperlink ref="E8" r:id="rId14" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
     <hyperlink ref="A9" r:id="rId15" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="A10" r:id="rId17" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="A11" r:id="rId19" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB81083F-0A96-4950-B693-B03291846F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE722E9-419C-4B84-9FF7-53CA6271F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,17 @@
   </si>
   <si>
     <t>for(char c : magazine.toCharArray()) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>447. 回旋镖的数量</t>
+  </si>
+  <si>
+    <t>2024.01.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (Map.Entry&lt;Integer, Integer&gt; entry : cnt.entrySet()) {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -905,6 +916,26 @@
       </c>
       <c r="F11" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +961,12 @@
     <hyperlink ref="E10" r:id="rId18" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
     <hyperlink ref="A11" r:id="rId19" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
     <hyperlink ref="E11" r:id="rId20" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="A12" r:id="rId21" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="E12" r:id="rId22" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE722E9-419C-4B84-9FF7-53CA6271F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA165C-656D-4DF4-A15F-E9DDD418FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,17 @@
   </si>
   <si>
     <t>for (Map.Entry&lt;Integer, Integer&gt; entry : cnt.entrySet()) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2707. 字符串中的额外字符</t>
+  </si>
+  <si>
+    <t>2024.01.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、动态规划、字典树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -936,6 +947,23 @@
       </c>
       <c r="F12" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +991,12 @@
     <hyperlink ref="E11" r:id="rId20" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
     <hyperlink ref="A12" r:id="rId21" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
     <hyperlink ref="E12" r:id="rId22" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="A13" r:id="rId23" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA165C-656D-4DF4-A15F-E9DDD418FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DF3EA-3AC6-42D4-BE3D-FC6E533FE637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>哈希表、动态规划、字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2696. 删除子串后的字符串最小长度</t>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -964,6 +979,23 @@
       </c>
       <c r="E13" s="9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +1025,12 @@
     <hyperlink ref="E12" r:id="rId22" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
     <hyperlink ref="A13" r:id="rId23" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
     <hyperlink ref="E13" r:id="rId24" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="A14" r:id="rId25" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="E14" r:id="rId26" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DF3EA-3AC6-42D4-BE3D-FC6E533FE637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8881B9-1783-4713-AA05-A30D8999A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,25 @@
   </si>
   <si>
     <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2645. 构造有效字符串的最少插入数</t>
+  </si>
+  <si>
+    <t>贪心、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word.charAt(j) != s.charAt(i)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -996,6 +1015,26 @@
       </c>
       <c r="E14" s="9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +1066,12 @@
     <hyperlink ref="E13" r:id="rId24" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
     <hyperlink ref="A14" r:id="rId25" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
     <hyperlink ref="E14" r:id="rId26" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="A15" r:id="rId27" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="E15" r:id="rId28" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8881B9-1783-4713-AA05-A30D8999A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC28C9-5D87-4255-B64B-7A64DBFEB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,25 @@
   </si>
   <si>
     <t>word.charAt(j) != s.charAt(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2085. 统计出现过一次的公共字符串</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt1.merge(word1, 1, Integer::sum);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1035,6 +1054,26 @@
       </c>
       <c r="F15" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1107,12 @@
     <hyperlink ref="E14" r:id="rId26" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
     <hyperlink ref="A15" r:id="rId27" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
     <hyperlink ref="E15" r:id="rId28" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="A16" r:id="rId29" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="E16" r:id="rId30" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC28C9-5D87-4255-B64B-7A64DBFEB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1065D618-495F-4106-B59E-2CFE2D99B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,29 @@
   </si>
   <si>
     <t>cnt1.merge(word1, 1, Integer::sum);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2182. 构造限制重复的字符串</t>
+  </si>
+  <si>
+    <t>贪心、堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringBuilder ans = new StringBuilder();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1074,6 +1097,26 @@
       </c>
       <c r="F16" s="3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1152,12 @@
     <hyperlink ref="E15" r:id="rId28" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
     <hyperlink ref="A16" r:id="rId29" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
     <hyperlink ref="E16" r:id="rId30" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="A17" r:id="rId31" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="E17" r:id="rId32" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1065D618-495F-4106-B59E-2CFE2D99B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6332795A-F9EA-4316-9CC2-8BA815EAB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,39 @@
   </si>
   <si>
     <t>StringBuilder ans = new StringBuilder();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return new int[]{i,j};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. 字母异位词分组</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; list = hashtable.getOrDefault(key, new ArrayList&lt;String&gt;());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128. 最长连续序列</t>
+  </si>
+  <si>
+    <t>力扣Hot 3/100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1117,6 +1150,57 @@
       </c>
       <c r="F17" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1238,13 @@
     <hyperlink ref="E16" r:id="rId30" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
     <hyperlink ref="A17" r:id="rId31" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="E17" r:id="rId32" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="A18" r:id="rId33" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A19" r:id="rId34" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A20" r:id="rId35" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6332795A-F9EA-4316-9CC2-8BA815EAB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258073F7-5113-4567-A167-2E15AAAD9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4869" yWindow="1483" windowWidth="16457" windowHeight="8434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,21 @@
   </si>
   <si>
     <t>力扣Hot 3/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83. 删除排序链表中的重复元素</t>
+  </si>
+  <si>
+    <t>画手大鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1201,6 +1216,23 @@
       </c>
       <c r="F20" s="3" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1241,10 +1273,12 @@
     <hyperlink ref="A18" r:id="rId33" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
     <hyperlink ref="A19" r:id="rId34" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A20" r:id="rId35" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A21" r:id="rId36" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="E21" r:id="rId37" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258073F7-5113-4567-A167-2E15AAAD9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA2E1E-0FFB-4756-8F6C-34D19107EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4869" yWindow="1483" windowWidth="16457" windowHeight="8434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,77 @@
   </si>
   <si>
     <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283. 移动零</t>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王尼玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708. 循环有序列表的插入</t>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krahets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>本题的难点在于如何去除重复解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴彦祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一题五解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1233,6 +1304,97 @@
       </c>
       <c r="E21" s="9" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1275,10 +1437,20 @@
     <hyperlink ref="A20" r:id="rId35" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
     <hyperlink ref="A21" r:id="rId36" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
     <hyperlink ref="E21" r:id="rId37" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="A22" r:id="rId38" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="E22" r:id="rId39" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="A23" r:id="rId40" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="E23" r:id="rId41" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="A24" r:id="rId42" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="E24" r:id="rId43" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="A25" r:id="rId44" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A26" r:id="rId45" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="E25" r:id="rId46" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E26" r:id="rId47" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA2E1E-0FFB-4756-8F6C-34D19107EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568C1B6-4636-49C3-9106-9E1FB73B7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19755" yWindow="2490" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,32 @@
   </si>
   <si>
     <t>一题五解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82. 删除排序链表中的重复元素 II</t>
+  </si>
+  <si>
+    <t>2024.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表，递归/迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负雪明烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156. 上下翻转二叉树</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，栈，模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1395,6 +1421,40 @@
       </c>
       <c r="F26" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1447,10 +1507,14 @@
     <hyperlink ref="A26" r:id="rId45" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
     <hyperlink ref="E25" r:id="rId46" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E26" r:id="rId47" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="A27" r:id="rId48" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="E27" r:id="rId49" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="A28" r:id="rId50" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="E28" r:id="rId51" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568C1B6-4636-49C3-9106-9E1FB73B7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E11874C-1921-4A05-BC72-F17CAA415BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19755" yWindow="2490" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17190" yWindow="2535" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,28 @@
   </si>
   <si>
     <t>二叉树，栈，模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>438. 找到字符串中所有字母异位词</t>
+  </si>
+  <si>
+    <t>labuladong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(window.get(cur).equals(need.get(cur))) {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1455,6 +1477,43 @@
       </c>
       <c r="E28" s="9" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1570,14 @@
     <hyperlink ref="E27" r:id="rId49" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
     <hyperlink ref="A28" r:id="rId50" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
     <hyperlink ref="E28" r:id="rId51" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="A29" r:id="rId52" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="E29" r:id="rId53" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="A30" r:id="rId54" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="E30" r:id="rId55" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E11874C-1921-4A05-BC72-F17CAA415BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7280DF-61D5-42E5-B9EB-B807B9E48086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17190" yWindow="2535" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21990" yWindow="3885" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,28 @@
   </si>
   <si>
     <t>if(window.get(cur).equals(need.get(cur))) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>734. 句子相似性</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2719. 统计整数数目</t>
+  </si>
+  <si>
+    <t>数学、动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1514,6 +1536,40 @@
       </c>
       <c r="F30" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1630,14 @@
     <hyperlink ref="E29" r:id="rId53" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="A30" r:id="rId54" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
     <hyperlink ref="E30" r:id="rId55" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="A31" r:id="rId56" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="E31" r:id="rId57" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="A32" r:id="rId58" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="E32" r:id="rId59" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7280DF-61D5-42E5-B9EB-B807B9E48086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F10D8-0FC7-4409-AA04-E415A582851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21990" yWindow="3885" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,43 @@
   </si>
   <si>
     <t>数学、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560. 和为 K 的子数组</t>
+  </si>
+  <si>
+    <t>可能为负时不能滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>前缀和、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcdull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1570,6 +1607,60 @@
       </c>
       <c r="E32" s="9" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1634,10 +1725,16 @@
     <hyperlink ref="E31" r:id="rId57" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
     <hyperlink ref="A32" r:id="rId58" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
     <hyperlink ref="E32" r:id="rId59" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="A33" r:id="rId60" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="E33" r:id="rId61" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="A34" r:id="rId62" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A35" r:id="rId63" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="E34" r:id="rId64" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E35" r:id="rId65" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId66"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F10D8-0FC7-4409-AA04-E415A582851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30B1462-52DF-4396-AB49-26D3A033033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21990" yWindow="3885" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28380" yWindow="3060" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,10 @@
   </si>
   <si>
     <t>Mcdull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1661,6 +1665,9 @@
       </c>
       <c r="E35" s="9" t="s">
         <v>139</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30B1462-52DF-4396-AB49-26D3A033033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015DB85F-6B68-4997-B4AB-7BEFE0F91441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28380" yWindow="3060" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4166" yWindow="1011" windowWidth="16457" windowHeight="10698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.01.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,7 +552,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git push失败</t>
+    <t>git push失败，滑动窗口需要巩固</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1615,59 +1611,59 @@
     </row>
     <row r="33" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015DB85F-6B68-4997-B4AB-7BEFE0F91441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DDE8AC-039F-49B9-A465-660EB0349443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4166" yWindow="1011" windowWidth="16457" windowHeight="10698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20475" yWindow="3840" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,21 @@
   </si>
   <si>
     <t>git push失败，滑动窗口需要巩固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744. 最大字符串配对数目</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1664,6 +1679,23 @@
       </c>
       <c r="F35" s="3" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1734,10 +1766,12 @@
     <hyperlink ref="A35" r:id="rId63" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
     <hyperlink ref="E34" r:id="rId64" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
     <hyperlink ref="E35" r:id="rId65" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="A36" r:id="rId66" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="E36" r:id="rId67" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId68"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DDE8AC-039F-49B9-A465-660EB0349443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE558304-8B02-41FB-96D1-5ECF615ACF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20475" yWindow="3840" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22245" yWindow="4515" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +568,28 @@
   </si>
   <si>
     <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>liweiwei1419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1696,6 +1718,40 @@
       </c>
       <c r="E36" s="9" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +1824,14 @@
     <hyperlink ref="E35" r:id="rId65" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
     <hyperlink ref="A36" r:id="rId66" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
     <hyperlink ref="E36" r:id="rId67" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="A37" r:id="rId68" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="E37" r:id="rId69" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="A38" r:id="rId70" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="E38" r:id="rId71" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId72"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE558304-8B02-41FB-96D1-5ECF615ACF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B957ED-BBA2-4C41-BCAA-DAE4CC320421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22245" yWindow="4515" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20460" yWindow="2745" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +590,21 @@
   </si>
   <si>
     <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171. 拿出最少数目的魔法豆</t>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1752,6 +1767,23 @@
       </c>
       <c r="E38" s="9" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1828,10 +1860,12 @@
     <hyperlink ref="E37" r:id="rId69" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
     <hyperlink ref="A38" r:id="rId70" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
     <hyperlink ref="E38" r:id="rId71" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="A39" r:id="rId72" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="E39" r:id="rId73" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId74"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B957ED-BBA2-4C41-BCAA-DAE4CC320421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5718C-B386-4311-8287-26E6B2A0FDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20460" yWindow="2745" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,6 +605,21 @@
   </si>
   <si>
     <t>2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2809. 使数组和小于等于 x 的最少时间</t>
+  </si>
+  <si>
+    <t>2024.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1784,6 +1799,23 @@
       </c>
       <c r="E39" s="9" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1862,10 +1894,12 @@
     <hyperlink ref="E38" r:id="rId71" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
     <hyperlink ref="A39" r:id="rId72" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
     <hyperlink ref="E39" r:id="rId73" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="A40" r:id="rId74" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="E40" r:id="rId75" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId74"/>
+    <tablePart r:id="rId76"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5718C-B386-4311-8287-26E6B2A0FDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F27D9F6-C69D-467B-B69F-C659A73A4D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20460" yWindow="2745" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20235" yWindow="3900" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,25 @@
   </si>
   <si>
     <t>排序、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2788. 按分隔符拆分字符串</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1060,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1816,6 +1835,26 @@
       </c>
       <c r="E40" s="9" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1896,10 +1935,12 @@
     <hyperlink ref="E39" r:id="rId73" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
     <hyperlink ref="A40" r:id="rId74" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
     <hyperlink ref="E40" r:id="rId75" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="A41" r:id="rId76" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="E41" r:id="rId77" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId76"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F27D9F6-C69D-467B-B69F-C659A73A4D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F5F5A3-0EE2-4C3D-A45B-462B641D78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20235" yWindow="3900" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="168">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,25 @@
   </si>
   <si>
     <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670. 最大交换</t>
+  </si>
+  <si>
+    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1855,6 +1874,26 @@
       </c>
       <c r="F41" s="3" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1937,10 +1976,12 @@
     <hyperlink ref="E40" r:id="rId75" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
     <hyperlink ref="A41" r:id="rId76" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
     <hyperlink ref="E41" r:id="rId77" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E42" r:id="rId78" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="A42" r:id="rId79" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F5F5A3-0EE2-4C3D-A45B-462B641D78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718374E2-5801-4CF8-9648-F2056CA20D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,130 +534,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>前缀和、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcdull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push失败，滑动窗口需要巩固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744. 最大字符串配对数目</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>liweiwei1419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171. 拿出最少数目的魔法豆</t>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2809. 使数组和小于等于 x 的最少时间</t>
+  </si>
+  <si>
+    <t>2024.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2788. 按分隔符拆分字符串</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670. 最大交换</t>
+  </si>
+  <si>
+    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>239. 滑动窗口最大值</t>
-  </si>
-  <si>
-    <t>76. 最小覆盖子串</t>
-  </si>
-  <si>
-    <t>前缀和、哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单调队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mcdull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push失败，滑动窗口需要巩固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2744. 最大字符串配对数目</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53. 最大子数组和</t>
-  </si>
-  <si>
-    <t>liweiwei1419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56. 合并区间</t>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2171. 拿出最少数目的魔法豆</t>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2809. 使数组和小于等于 x 的最少时间</t>
-  </si>
-  <si>
-    <t>2024.01.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2788. 按分隔符拆分字符串</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>670. 最大交换</t>
-  </si>
-  <si>
-    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +766,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -822,14 +823,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G43">
+    <sortCondition descending="1" ref="C1:C1048576"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1100,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1111,8 +1115,8 @@
     <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="32.640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="32.640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1133,851 +1137,857 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>133</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
+      <c r="A3" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>133</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
+      <c r="A4" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>122</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
+      <c r="A5" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>137</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>108</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>109</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>162</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="10" t="s">
-        <v>124</v>
+        <v>23</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="10" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
-    <hyperlink ref="E3" r:id="rId4" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="A7" r:id="rId11" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="A8" r:id="rId13" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="A9" r:id="rId15" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="A10" r:id="rId17" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="A11" r:id="rId19" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="A12" r:id="rId21" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="E12" r:id="rId22" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="A13" r:id="rId23" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="E13" r:id="rId24" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="A14" r:id="rId25" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="A15" r:id="rId27" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="A16" r:id="rId29" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="E16" r:id="rId30" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="A17" r:id="rId31" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="E17" r:id="rId32" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="A18" r:id="rId33" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A19" r:id="rId34" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A20" r:id="rId35" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A21" r:id="rId36" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="E21" r:id="rId37" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="A22" r:id="rId38" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="E22" r:id="rId39" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="A23" r:id="rId40" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="E23" r:id="rId41" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="A24" r:id="rId42" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="E24" r:id="rId43" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="A25" r:id="rId44" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A26" r:id="rId45" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="E25" r:id="rId46" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E26" r:id="rId47" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="A27" r:id="rId48" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="E27" r:id="rId49" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="A28" r:id="rId50" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="E28" r:id="rId51" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="A29" r:id="rId52" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="E29" r:id="rId53" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="A30" r:id="rId54" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="E30" r:id="rId55" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="A31" r:id="rId56" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="E31" r:id="rId57" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="A32" r:id="rId58" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="E32" r:id="rId59" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="A33" r:id="rId60" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="E33" r:id="rId61" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="A34" r:id="rId62" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A35" r:id="rId63" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="E34" r:id="rId64" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E35" r:id="rId65" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="A36" r:id="rId66" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="E36" r:id="rId67" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="A37" r:id="rId68" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="E37" r:id="rId69" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="A38" r:id="rId70" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="E38" r:id="rId71" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="A39" r:id="rId72" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="E39" r:id="rId73" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="A40" r:id="rId74" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="E40" r:id="rId75" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="A41" r:id="rId76" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="E41" r:id="rId77" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E42" r:id="rId78" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="A42" r:id="rId79" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="A32" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A31" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A42" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A41" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A30" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A23" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A22" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A40" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A39" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A21" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A20" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A19" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A38" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A29" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A13" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A14" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A15" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A37" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A10" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A18" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A5" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A11" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A12" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A36" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A9" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A4" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A26" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A27" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A2" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A3" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A8" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A6" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A7" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A34" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A33" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A25" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A24" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E24" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E25" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E33" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E34" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E7" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E6" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E35" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E8" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E3" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E2" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E27" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E26" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E4" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E9" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E36" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E28" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E12" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E11" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E5" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E18" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E10" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E37" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E29" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E38" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E19" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E20" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E21" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E39" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E40" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E22" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E23" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E30" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E41" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E42" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E31" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E17" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E16" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
+    <hyperlink ref="E32" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718374E2-5801-4CF8-9648-F2056CA20D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF12A40-6402-4CBF-91DA-5EC1193A437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20160" yWindow="6600" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,17 @@
   </si>
   <si>
     <t>239. 滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2765. 最长交替子数组</t>
+  </si>
+  <si>
+    <t>数组、枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,13 +774,13 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -831,9 +842,9 @@
     <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1102,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1904,6 +1915,23 @@
       </c>
       <c r="E42" s="9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1988,10 +2016,12 @@
     <hyperlink ref="E17" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
     <hyperlink ref="E16" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
     <hyperlink ref="E32" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A43" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E43" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId82"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF12A40-6402-4CBF-91DA-5EC1193A437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307837DE-05CD-4D85-AA5B-8E1B582AF3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20160" yWindow="6600" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,190 +486,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>labuladong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(window.get(cur).equals(need.get(cur))) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>734. 句子相似性</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2719. 统计整数数目</t>
+  </si>
+  <si>
+    <t>数学、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560. 和为 K 的子数组</t>
+  </si>
+  <si>
+    <t>可能为负时不能滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>前缀和、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcdull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push失败，滑动窗口需要巩固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744. 最大字符串配对数目</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>liweiwei1419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171. 拿出最少数目的魔法豆</t>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2809. 使数组和小于等于 x 的最少时间</t>
+  </si>
+  <si>
+    <t>2024.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2788. 按分隔符拆分字符串</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670. 最大交换</t>
+  </si>
+  <si>
+    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2765. 最长交替子数组</t>
+  </si>
+  <si>
+    <t>数组、枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>438. 找到字符串中所有字母异位词</t>
-  </si>
-  <si>
-    <t>labuladong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(window.get(cur).equals(need.get(cur))) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>734. 句子相似性</t>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2719. 统计整数数目</t>
-  </si>
-  <si>
-    <t>数学、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>560. 和为 K 的子数组</t>
-  </si>
-  <si>
-    <t>可能为负时不能滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76. 最小覆盖子串</t>
-  </si>
-  <si>
-    <t>前缀和、哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单调队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mcdull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push失败，滑动窗口需要巩固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2744. 最大字符串配对数目</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53. 最大子数组和</t>
-  </si>
-  <si>
-    <t>liweiwei1419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56. 合并区间</t>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2171. 拿出最少数目的魔法豆</t>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2809. 使数组和小于等于 x 的最少时间</t>
-  </si>
-  <si>
-    <t>2024.01.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2788. 按分隔符拆分字符串</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>670. 最大交换</t>
-  </si>
-  <si>
-    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239. 滑动窗口最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2765. 最长交替子数组</t>
-  </si>
-  <si>
-    <t>数组、枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1156,42 +1157,42 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -1199,7 +1200,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>118</v>
@@ -1208,13 +1209,16 @@
         <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1233,44 +1237,47 @@
       <c r="E5" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>118</v>
@@ -1279,13 +1286,13 @@
         <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1566,76 +1573,76 @@
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1737,53 +1744,53 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1919,16 +1926,16 @@
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>48</v>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307837DE-05CD-4D85-AA5B-8E1B582AF3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BAA1C-CC06-47DD-B2BF-8AB90B7E77C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="175">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,6 +671,21 @@
   </si>
   <si>
     <t>438. 找到字符串中所有字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2865. 美丽塔 I</t>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1939,6 +1954,23 @@
       </c>
       <c r="E43" s="9" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +2057,12 @@
     <hyperlink ref="E32" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
     <hyperlink ref="A43" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
     <hyperlink ref="E43" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A44" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E44" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId82"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BAA1C-CC06-47DD-B2BF-8AB90B7E77C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F772CF-59BE-42F5-B72D-E6146476FAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,15 +677,15 @@
     <t>2865. 美丽塔 I</t>
   </si>
   <si>
-    <t>单调栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.01.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划、单调栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1961,16 +1961,16 @@
         <v>171</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F772CF-59BE-42F5-B72D-E6146476FAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2BD04-4D2D-4D60-BCCD-EA01B9A2EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +686,14 @@
   </si>
   <si>
     <t>动态规划、单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要么加，要么改；merged.toArray(new int[merged.size()][]);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1272,6 +1280,12 @@
       <c r="E6" s="9" t="s">
         <v>143</v>
       </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
@@ -1288,6 +1302,12 @@
       </c>
       <c r="E7" s="9" t="s">
         <v>146</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2BD04-4D2D-4D60-BCCD-EA01B9A2EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20D07E-8BC8-4646-94C4-1046188DE87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="181">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,21 @@
   </si>
   <si>
     <t>要么加，要么改；merged.toArray(new int[merged.size()][]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2859. 计算 K 置位下标对应元素的和</t>
+  </si>
+  <si>
+    <t>2024.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer.bitCount(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1255,7 +1270,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>102</v>
@@ -1275,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>143</v>
@@ -1298,7 +1313,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>146</v>
@@ -1991,6 +2006,23 @@
       </c>
       <c r="E44" s="9" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2111,11 @@
     <hyperlink ref="E43" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
     <hyperlink ref="A44" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
     <hyperlink ref="E44" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A45" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId85"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20D07E-8BC8-4646-94C4-1046188DE87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C949786-F019-4B96-A141-D2C93BA36F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="183">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,13 @@
   </si>
   <si>
     <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2846. 边权重均等查询</t>
+  </si>
+  <si>
+    <t>2024.01.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2023,6 +2030,17 @@
       </c>
       <c r="G45" s="3" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2112,10 +2130,11 @@
     <hyperlink ref="A44" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
     <hyperlink ref="E44" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
     <hyperlink ref="A45" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A46" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId85"/>
+    <tablePart r:id="rId86"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C949786-F019-4B96-A141-D2C93BA36F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8DA7F-B347-4D61-86EA-C57FD5298C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,13 @@
   </si>
   <si>
     <t>2024.01.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2861. 最大合金数</t>
+  </si>
+  <si>
+    <t>2024.01.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2041,6 +2048,17 @@
       </c>
       <c r="D46" s="8" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2131,10 +2149,11 @@
     <hyperlink ref="E44" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
     <hyperlink ref="A45" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
     <hyperlink ref="A46" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A47" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId86"/>
+    <tablePart r:id="rId87"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8DA7F-B347-4D61-86EA-C57FD5298C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BA971-53A4-4225-99F8-38FE42C76BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="189">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,6 +723,21 @@
   </si>
   <si>
     <t>2024.01.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365. 水壶问题</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归、数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2059,6 +2074,23 @@
       </c>
       <c r="D47" s="8" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2182,11 @@
     <hyperlink ref="A45" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
     <hyperlink ref="A46" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
     <hyperlink ref="A47" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A48" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId87"/>
+    <tablePart r:id="rId88"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BA971-53A4-4225-99F8-38FE42C76BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674405C4-2981-48AC-9282-2161EC9367B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,15 +729,25 @@
     <t>365. 水壶问题</t>
   </si>
   <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.01.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>递归、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>514. 自由之路</t>
+  </si>
+  <si>
+    <t>2024.01.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ikaruga</t>
+  </si>
+  <si>
+    <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2081,16 +2091,30 @@
         <v>185</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="6" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +2207,12 @@
     <hyperlink ref="A46" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
     <hyperlink ref="A47" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
     <hyperlink ref="A48" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A49" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E49" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId88"/>
+    <tablePart r:id="rId90"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674405C4-2981-48AC-9282-2161EC9367B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0BF08A-E2FE-4124-9431-4FA8770A548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="194">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,6 +748,13 @@
   </si>
   <si>
     <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2808. 使循环数组所有元素相等的最少秒数</t>
+  </si>
+  <si>
+    <t>2024.01.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2115,6 +2122,17 @@
       </c>
       <c r="E49" s="9" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2209,10 +2227,11 @@
     <hyperlink ref="A48" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
     <hyperlink ref="A49" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
     <hyperlink ref="E49" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A50" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId90"/>
+    <tablePart r:id="rId91"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0BF08A-E2FE-4124-9431-4FA8770A548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D95AA9-E604-40DE-A4E6-78133C22CA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19215" yWindow="3870" windowWidth="18810" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12312" yWindow="0" windowWidth="12408" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,6 +755,18 @@
   </si>
   <si>
     <t>2024.01.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704.二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.移除元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>977.有序数组的平方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2133,6 +2145,21 @@
       </c>
       <c r="D50" s="8" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D95AA9-E604-40DE-A4E6-78133C22CA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E5050-CC57-4C12-A05A-B668BF894508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12312" yWindow="0" windowWidth="12408" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="203">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,6 +767,29 @@
   </si>
   <si>
     <t>977.有序数组的平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189.轮转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣hot100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238. 除自身以外数组的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>原地哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2119,7 +2142,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
         <v>188</v>
       </c>
@@ -2136,7 +2159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>192</v>
       </c>
@@ -2147,19 +2170,61 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2255,10 +2320,13 @@
     <hyperlink ref="A49" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
     <hyperlink ref="E49" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
     <hyperlink ref="A50" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A54" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A55" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A56" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId91"/>
+    <tablePart r:id="rId94"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E5050-CC57-4C12-A05A-B668BF894508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B535A9A-0AFE-403F-B832-9E6C33518F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -791,6 +791,27 @@
   <si>
     <t>原地哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. 矩阵置零</t>
+  </si>
+  <si>
+    <t>用matrix第一行和第一列记录该行该列是否有0,作为标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powcai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>YouLookDeliciousC</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2203,14 +2224,14 @@
       <c r="A55" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="B55" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="C55" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2225,6 +2246,37 @@
       </c>
       <c r="G56" s="3" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2323,10 +2375,14 @@
     <hyperlink ref="A54" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
     <hyperlink ref="A55" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
     <hyperlink ref="A56" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A57" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E57" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A58" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E58" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B535A9A-0AFE-403F-B832-9E6C33518F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CED725-8CC6-4E2B-B9AE-BE2B04C7317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,6 +812,32 @@
   </si>
   <si>
     <t>YouLookDeliciousC</t>
+  </si>
+  <si>
+    <t>48. 旋转图像</t>
+  </si>
+  <si>
+    <t>2024.07.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240. 搜索二维矩阵 II</t>
+  </si>
+  <si>
+    <t>注意纵横mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索二叉树思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1254,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2277,6 +2303,43 @@
       </c>
       <c r="E58" s="10" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2379,10 +2442,14 @@
     <hyperlink ref="E57" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
     <hyperlink ref="A58" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
     <hyperlink ref="E58" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A59" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E59" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A60" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E60" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId102"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CED725-8CC6-4E2B-B9AE-BE2B04C7317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE13F9C-A827-4E92-B1D3-6FFE1FABB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="222">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,6 +838,25 @@
   <si>
     <t>搜索二叉树思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160. 相交链表</t>
+  </si>
+  <si>
+    <t>2024.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>234. 回文链表</t>
+  </si>
+  <si>
+    <t>141. 环形链表</t>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2340,6 +2359,76 @@
       </c>
       <c r="G60" s="3" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2446,10 +2535,15 @@
     <hyperlink ref="E59" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
     <hyperlink ref="A60" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
     <hyperlink ref="E60" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A61" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A62" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A63" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A64" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A65" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE13F9C-A827-4E92-B1D3-6FFE1FABB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202158CE-C649-418F-A6F6-5BCC804903EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="227">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,6 +857,22 @@
   </si>
   <si>
     <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>2024.08.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. K 个一组翻转链表</t>
   </si>
 </sst>
 </file>
@@ -923,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,6 +969,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1299,25 +1318,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="32.640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="6"/>
+    <col min="7" max="7" width="32.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>130</v>
       </c>
@@ -1363,7 +1382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>166</v>
       </c>
@@ -1383,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>170</v>
       </c>
@@ -1406,7 +1425,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>99</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>142</v>
       </c>
@@ -1449,7 +1468,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
@@ -1472,7 +1491,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>133</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>119</v>
       </c>
@@ -1509,7 +1528,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>92</v>
       </c>
@@ -1526,7 +1545,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>104</v>
       </c>
@@ -1546,7 +1565,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>106</v>
       </c>
@@ -1566,7 +1585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
@@ -1583,7 +1602,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>84</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
@@ -1617,7 +1636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
@@ -1674,7 +1693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>63</v>
       </c>
@@ -1694,7 +1713,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
@@ -1711,7 +1730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
@@ -1728,7 +1747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +1767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>164</v>
       </c>
@@ -1788,7 +1807,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>156</v>
       </c>
@@ -1808,7 +1827,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>123</v>
       </c>
@@ -1825,7 +1844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>127</v>
       </c>
@@ -1842,7 +1861,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>111</v>
       </c>
@@ -1859,7 +1878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +1898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>152</v>
       </c>
@@ -1956,7 +1975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>148</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>138</v>
       </c>
@@ -1990,7 +2009,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>115</v>
       </c>
@@ -2007,7 +2026,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>88</v>
       </c>
@@ -2024,7 +2043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +2063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>49</v>
       </c>
@@ -2084,7 +2103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
@@ -2104,7 +2123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>25</v>
       </c>
@@ -2121,7 +2140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>167</v>
       </c>
@@ -2138,7 +2157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>171</v>
       </c>
@@ -2155,7 +2174,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>177</v>
       </c>
@@ -2172,7 +2191,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>181</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>183</v>
       </c>
@@ -2194,7 +2213,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>185</v>
       </c>
@@ -2208,7 +2227,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>188</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>192</v>
       </c>
@@ -2236,22 +2255,22 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>197</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>200</v>
       </c>
@@ -2279,7 +2298,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>201</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>203</v>
       </c>
@@ -2310,7 +2329,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>207</v>
       </c>
@@ -2324,7 +2343,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
         <v>209</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>212</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -2375,7 +2394,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>218</v>
       </c>
@@ -2389,7 +2408,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>219</v>
       </c>
@@ -2403,7 +2422,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>220</v>
       </c>
@@ -2417,7 +2436,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>221</v>
       </c>
@@ -2429,6 +2448,50 @@
       </c>
       <c r="G65" s="3" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A66" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A67" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A69" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2540,10 +2603,14 @@
     <hyperlink ref="A63" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
     <hyperlink ref="A64" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
     <hyperlink ref="A65" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A66" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A67" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A68" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A69" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId111"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202158CE-C649-418F-A6F6-5BCC804903EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C0367-B684-4D65-A19E-3DE08676E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="234">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -873,6 +873,30 @@
   </si>
   <si>
     <t>25. K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>2024.08.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138. 随机链表的复制</t>
+  </si>
+  <si>
+    <t>148. 排序链表</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 合并 K 个升序链表</t>
+  </si>
+  <si>
+    <t>146. LRU 缓存</t>
+  </si>
+  <si>
+    <t>class LRUCache extends LinkedHashMap&lt;Integer, Integer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1318,25 +1342,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="6"/>
-    <col min="7" max="7" width="32.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="20.640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="32.640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>130</v>
       </c>
@@ -1382,7 +1406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>166</v>
       </c>
@@ -1402,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>170</v>
       </c>
@@ -1425,7 +1449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>99</v>
       </c>
@@ -1445,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>142</v>
       </c>
@@ -1468,7 +1492,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
@@ -1491,7 +1515,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>133</v>
       </c>
@@ -1511,7 +1535,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>119</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>92</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>104</v>
       </c>
@@ -1565,7 +1589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>106</v>
       </c>
@@ -1585,7 +1609,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>84</v>
       </c>
@@ -1619,7 +1643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
@@ -1636,7 +1660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
@@ -1693,7 +1717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>63</v>
       </c>
@@ -1713,7 +1737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
@@ -1730,7 +1754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
@@ -1747,7 +1771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
@@ -1767,7 +1791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -1787,7 +1811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
         <v>164</v>
       </c>
@@ -1807,7 +1831,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>156</v>
       </c>
@@ -1827,7 +1851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>123</v>
       </c>
@@ -1844,7 +1868,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
         <v>127</v>
       </c>
@@ -1861,7 +1885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
         <v>111</v>
       </c>
@@ -1878,7 +1902,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
         <v>73</v>
       </c>
@@ -1898,7 +1922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
@@ -1918,7 +1942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>152</v>
       </c>
@@ -1975,7 +1999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
         <v>148</v>
       </c>
@@ -1992,7 +2016,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
         <v>138</v>
       </c>
@@ -2009,7 +2033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
         <v>115</v>
       </c>
@@ -2026,7 +2050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
         <v>88</v>
       </c>
@@ -2043,7 +2067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -2063,7 +2087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
         <v>53</v>
       </c>
@@ -2083,7 +2107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
         <v>49</v>
       </c>
@@ -2103,7 +2127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
@@ -2123,7 +2147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
         <v>25</v>
       </c>
@@ -2140,7 +2164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
         <v>167</v>
       </c>
@@ -2157,7 +2181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
         <v>171</v>
       </c>
@@ -2174,7 +2198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
         <v>177</v>
       </c>
@@ -2191,7 +2215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
         <v>181</v>
       </c>
@@ -2202,7 +2226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
         <v>183</v>
       </c>
@@ -2213,7 +2237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
         <v>185</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
         <v>188</v>
       </c>
@@ -2244,7 +2268,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>192</v>
       </c>
@@ -2255,22 +2279,22 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>197</v>
       </c>
@@ -2284,7 +2308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
         <v>200</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
         <v>201</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
         <v>203</v>
       </c>
@@ -2329,7 +2353,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
         <v>207</v>
       </c>
@@ -2343,7 +2367,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
         <v>209</v>
       </c>
@@ -2360,7 +2384,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
         <v>212</v>
       </c>
@@ -2380,7 +2404,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -2394,7 +2418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
         <v>218</v>
       </c>
@@ -2408,7 +2432,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
         <v>219</v>
       </c>
@@ -2422,7 +2446,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
         <v>220</v>
       </c>
@@ -2436,7 +2460,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
         <v>221</v>
       </c>
@@ -2450,7 +2474,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11" t="s">
         <v>222</v>
       </c>
@@ -2461,7 +2485,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
         <v>223</v>
       </c>
@@ -2472,7 +2496,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
         <v>224</v>
       </c>
@@ -2483,7 +2507,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
         <v>226</v>
       </c>
@@ -2492,6 +2516,65 @@
       </c>
       <c r="D69" s="8" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2607,10 +2690,15 @@
     <hyperlink ref="A67" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
     <hyperlink ref="A68" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
     <hyperlink ref="A69" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A70" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E70" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A71" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A72" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A73" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId111"/>
+    <tablePart r:id="rId116"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C0367-B684-4D65-A19E-3DE08676E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2571DC0-5C6B-4382-AB9D-578FB1023088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="245">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,6 +897,40 @@
   <si>
     <t>class LRUCache extends LinkedHashMap&lt;Integer, Integer&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>2024.08.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>108. 将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>230. 二叉搜索树中第 K 小的元素</t>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2575,6 +2609,116 @@
       </c>
       <c r="G73" s="3" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2695,10 +2839,20 @@
     <hyperlink ref="A71" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
     <hyperlink ref="A72" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
     <hyperlink ref="A73" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A74" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A75" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A76" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A77" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A78" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A79" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A80" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A81" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A82" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A83" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId116"/>
+    <tablePart r:id="rId126"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2571DC0-5C6B-4382-AB9D-578FB1023088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C549B-63E6-4414-A99E-1B35D0C1E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="253">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -931,6 +931,33 @@
   </si>
   <si>
     <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>114. 二叉树展开为链表</t>
+  </si>
+  <si>
+    <t>2024.08.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>437. 路径总和 III</t>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>不知道思路是怎么来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124. 二叉树中的最大路径和</t>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1376,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2688,7 +2715,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
         <v>242</v>
       </c>
@@ -2699,7 +2726,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
         <v>243</v>
       </c>
@@ -2710,7 +2737,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
         <v>244</v>
       </c>
@@ -2719,6 +2746,70 @@
       </c>
       <c r="D83" s="8" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2849,10 +2940,16 @@
     <hyperlink ref="A81" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
     <hyperlink ref="A82" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
     <hyperlink ref="A83" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A84" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A85" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A86" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A87" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E87" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A88" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId126"/>
+    <tablePart r:id="rId132"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C549B-63E6-4414-A99E-1B35D0C1E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD7C57-FA9A-43F3-9E99-B0CFBF6F9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="258">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,6 +958,22 @@
   <si>
     <t>dfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>994. 腐烂的橘子</t>
+  </si>
+  <si>
+    <t>2024.08.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. 课程表</t>
+  </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2810,6 +2826,53 @@
       </c>
       <c r="G88" s="3" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2946,10 +3009,14 @@
     <hyperlink ref="A87" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
     <hyperlink ref="E87" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
     <hyperlink ref="A88" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A89" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A90" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A91" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A92" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId132"/>
+    <tablePart r:id="rId136"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD7C57-FA9A-43F3-9E99-B0CFBF6F9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311A559-25CF-4E07-807B-73C5FFD84A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="266">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,6 +974,35 @@
   </si>
   <si>
     <t>208. 实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>2024.08.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java值传递，拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯、DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
   </si>
 </sst>
 </file>
@@ -1419,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2356,19 +2385,28 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C52" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2873,6 +2911,74 @@
       </c>
       <c r="D92" s="8" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3119,17 @@
     <hyperlink ref="A90" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
     <hyperlink ref="A91" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
     <hyperlink ref="A92" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E93" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A93" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A94" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E94" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A95" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E95" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A96" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId136"/>
+    <tablePart r:id="rId143"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311A559-25CF-4E07-807B-73C5FFD84A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3ECF3-F31A-49CA-98B6-EDFE783F4A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="271">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,6 +1003,22 @@
   </si>
   <si>
     <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>79. 单词搜索</t>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <t>2024.08.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131. 分割回文串</t>
+  </si>
+  <si>
+    <t>51. N 皇后</t>
   </si>
 </sst>
 </file>
@@ -1448,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2979,6 +2995,68 @@
       </c>
       <c r="D96" s="8" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3126,10 +3204,16 @@
     <hyperlink ref="A95" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
     <hyperlink ref="E95" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
     <hyperlink ref="A96" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E98" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A98" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A97" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A99" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A100" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E100" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId143"/>
+    <tablePart r:id="rId149"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3ECF3-F31A-49CA-98B6-EDFE783F4A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738AFCF-F17F-4349-8B63-28947D1D41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="278">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,6 +1019,29 @@
   </si>
   <si>
     <t>51. N 皇后</t>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.08.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. 搜索插入位置</t>
+  </si>
+  <si>
+    <t>74. 搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>Peaceful Ishi2akaG5W</t>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,6 +1140,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1464,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3057,6 +3083,68 @@
       </c>
       <c r="E100" s="9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3210,10 +3298,16 @@
     <hyperlink ref="A99" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
     <hyperlink ref="A100" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
     <hyperlink ref="E100" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E103" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A103" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A101" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A102" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E104" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A104" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId149"/>
+    <tablePart r:id="rId155"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738AFCF-F17F-4349-8B63-28947D1D41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6078EA-7175-41B8-89FA-EA70F842C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2194" yWindow="1766" windowWidth="16449" windowHeight="8425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="281">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,13 +1042,23 @@
   </si>
   <si>
     <t>33. 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>153. 寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>方法四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,6 +1096,12 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1108,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,6 +1160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1490,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="C103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3023,7 +3040,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
         <v>267</v>
       </c>
@@ -3037,7 +3054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>266</v>
       </c>
@@ -3054,7 +3071,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
         <v>269</v>
       </c>
@@ -3068,7 +3085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
         <v>270</v>
       </c>
@@ -3085,7 +3102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
         <v>274</v>
       </c>
@@ -3099,7 +3116,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
         <v>275</v>
       </c>
@@ -3113,7 +3130,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
         <v>271</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
         <v>277</v>
       </c>
@@ -3145,6 +3162,40 @@
       </c>
       <c r="E104" s="12" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3304,10 +3355,12 @@
     <hyperlink ref="A102" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
     <hyperlink ref="E104" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
     <hyperlink ref="A104" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A105" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E106" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId155"/>
+    <tablePart r:id="rId157"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6078EA-7175-41B8-89FA-EA70F842C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D9E40A-DA02-468F-974F-38BDF5D8298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2194" yWindow="1766" windowWidth="16449" windowHeight="8425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="292">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1051,6 +1051,45 @@
   </si>
   <si>
     <t>方法四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>2024.08.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+  </si>
+  <si>
+    <t>辅助栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+  </si>
+  <si>
+    <t>程序员吴师兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>入栈递减栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这猪脑子也懂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以空间换时间，可以使用的数据结构是栈；哨兵；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1097,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,12 +1135,6 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1124,7 +1157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,7 +1193,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1507,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3179,7 +3211,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="10" t="s">
         <v>279</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -3196,6 +3228,94 @@
       </c>
       <c r="G106" s="3" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3477,20 @@
     <hyperlink ref="A104" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
     <hyperlink ref="A105" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
     <hyperlink ref="E106" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A107" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A106" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E108" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A108" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A109" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E109" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A110" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E110" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A111" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E111" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId157"/>
+    <tablePart r:id="rId167"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D9E40A-DA02-468F-974F-38BDF5D8298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89EAD1-0C94-4DFC-9592-8ACF35E53FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="303">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1091,6 +1091,43 @@
   <si>
     <t>以空间换时间，可以使用的数据结构是栈；哨兵；</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215. 数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.08.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295. 数据流的中位数</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>评论区三叶姐的回应很有意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>763. 划分字母区间</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3316,6 +3353,113 @@
       </c>
       <c r="G111" s="3" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3487,10 +3631,19 @@
     <hyperlink ref="E110" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
     <hyperlink ref="A111" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
     <hyperlink ref="E111" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A112" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E114" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A114" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A113" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A115" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A116" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A117" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A118" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E118" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId167"/>
+    <tablePart r:id="rId176"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89EAD1-0C94-4DFC-9592-8ACF35E53FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130E752-6524-47B7-9EBD-E6A21AD32B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1629" yWindow="2323" windowWidth="16448" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="317">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1128,6 +1128,57 @@
   </si>
   <si>
     <t>763. 划分字母区间</t>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+  </si>
+  <si>
+    <t>2024.08.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169. 多数元素</t>
+  </si>
+  <si>
+    <t>摩尔投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. 颜色分类</t>
+  </si>
+  <si>
+    <t>三数排序，循环不变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码没懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 下一个排列</t>
+  </si>
+  <si>
+    <t>Imageslr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+  </si>
+  <si>
+    <t>环形链表的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1576,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3460,6 +3511,85 @@
       </c>
       <c r="E118" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3640,10 +3770,17 @@
     <hyperlink ref="A117" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
     <hyperlink ref="A118" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
     <hyperlink ref="E118" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A119" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A120" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A121" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A122" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E122" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A123" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E123" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId176"/>
+    <tablePart r:id="rId183"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130E752-6524-47B7-9EBD-E6A21AD32B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D79C5-0578-4051-A12A-1C869D1A2104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1629" yWindow="2323" windowWidth="16448" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="325">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1179,6 +1179,32 @@
   <si>
     <t>Kirsche</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>2024.08.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118. 杨辉三角</t>
+  </si>
+  <si>
+    <t>198. 打家劫舍</t>
+  </si>
+  <si>
+    <t>279. 完全平方数</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量涡扇拖拉机</t>
+  </si>
+  <si>
+    <t>322. 零钱兑换</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3590,6 +3616,73 @@
       </c>
       <c r="E123" s="9" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3777,10 +3870,16 @@
     <hyperlink ref="E122" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
     <hyperlink ref="A123" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
     <hyperlink ref="E123" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A124" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A125" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A126" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A127" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E127" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A128" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId183"/>
+    <tablePart r:id="rId189"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D79C5-0578-4051-A12A-1C869D1A2104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A4A399-EFF6-4F93-89D9-E6B1C434A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="16458" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="328">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,6 +1205,16 @@
   </si>
   <si>
     <t>322. 零钱兑换</t>
+  </si>
+  <si>
+    <t>139. 单词拆分</t>
+  </si>
+  <si>
+    <t>300. 最长递增子序列</t>
+  </si>
+  <si>
+    <t>不一定是dp[n]，可能在中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1653,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="B124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3680,9 +3690,52 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
         <v>324</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3876,10 +3929,13 @@
     <hyperlink ref="A127" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
     <hyperlink ref="E127" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
     <hyperlink ref="A128" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
+    <hyperlink ref="A129" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E129" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A130" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId189"/>
+    <tablePart r:id="rId192"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A4A399-EFF6-4F93-89D9-E6B1C434A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48205C9-CA42-4F8E-8E32-F736D9008080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1131" yWindow="1131" windowWidth="16458" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="338">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1215,38 @@
   <si>
     <t>不一定是dp[n]，可能在中间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152. 乘积最大子数组</t>
+  </si>
+  <si>
+    <t>2024.08.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+  </si>
+  <si>
+    <t>32. 最长有效括号</t>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+  </si>
+  <si>
+    <t>1143. 最长公共子序列</t>
+  </si>
+  <si>
+    <t>m+1 n+1问题搞清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72. 编辑距离</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3736,6 +3768,133 @@
       </c>
       <c r="G130" s="3" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3932,10 +4091,22 @@
     <hyperlink ref="A129" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
     <hyperlink ref="E129" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
     <hyperlink ref="A130" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A131" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A132" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A133" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A134" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E134" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A135" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A136" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E136" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A137" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E137" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A138" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E138" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId192"/>
+    <tablePart r:id="rId204"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48205C9-CA42-4F8E-8E32-F736D9008080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759750D-F8A5-4447-861A-1590E0A6C65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="342">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,10 +523,6 @@
     <t>560. 和为 K 的子数组</t>
   </si>
   <si>
-    <t>可能为负时不能滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力扣官方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,18 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>704.二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.移除元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>977.有序数组的平方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>189.轮转数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1247,6 +1231,34 @@
   </si>
   <si>
     <t>72. 编辑距离</t>
+  </si>
+  <si>
+    <t>2024.04.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704. 二分查找</t>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>977. 有序数组的平方</t>
+  </si>
+  <si>
+    <t>2024.08.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3127. 构造相同颜色的正方形</t>
+  </si>
+  <si>
+    <t>每日一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1416,8 +1428,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G43">
-    <sortCondition descending="1" ref="C1:C1048576"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
+    <sortCondition descending="1" ref="D1:D1048576"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1695,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1738,2375 +1750,2402 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>122</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>142</v>
+        <v>330</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>110</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>82</v>
+        <v>314</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
+      <c r="A16" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
+      <c r="A17" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>5</v>
+        <v>314</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>67</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4" t="s">
-        <v>20</v>
+      <c r="A31" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
+      <c r="A32" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>155</v>
+        <v>283</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>72</v>
+        <v>269</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>181</v>
+        <v>262</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>182</v>
+        <v>264</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>183</v>
+        <v>258</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>184</v>
+        <v>254</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>190</v>
+        <v>142</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>192</v>
+        <v>257</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>193</v>
+        <v>254</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>194</v>
+      <c r="A51" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D51" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
-        <v>195</v>
+      <c r="A52" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D54" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>208</v>
+        <v>242</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="11" t="s">
-        <v>222</v>
+      <c r="A66" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="10" t="s">
-        <v>235</v>
+      <c r="A75" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>243</v>
+        <v>208</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>239</v>
+        <v>210</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>244</v>
+        <v>205</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>239</v>
+        <v>206</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>246</v>
+        <v>201</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>246</v>
+        <v>201</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>248</v>
+        <v>196</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="10" t="s">
-        <v>251</v>
+      <c r="A88" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>268</v>
+        <v>177</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>102</v>
+        <v>142</v>
+      </c>
+      <c r="F98" s="6">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>268</v>
+        <v>171</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="6">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>273</v>
+        <v>168</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F101" s="6">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>273</v>
+        <v>168</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>276</v>
+        <v>161</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F104" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>273</v>
+        <v>161</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>280</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>282</v>
+        <v>152</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>290</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>293</v>
+        <v>128</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>282</v>
+        <v>125</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>294</v>
+        <v>112</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>294</v>
+        <v>112</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>300</v>
+        <v>92</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>294</v>
+        <v>94</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>294</v>
+        <v>90</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>305</v>
+        <v>90</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>306</v>
+        <v>88</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>305</v>
+        <v>90</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>311</v>
+        <v>84</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>312</v>
+        <v>82</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>318</v>
+        <v>75</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>318</v>
+        <v>65</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>322</v>
+        <v>61</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>318</v>
+        <v>57</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="G129" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>318</v>
+        <v>51</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>327</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>329</v>
+        <v>45</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>329</v>
+        <v>39</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>331</v>
+        <v>35</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>329</v>
+        <v>36</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>329</v>
+        <v>27</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="10" t="s">
-        <v>334</v>
+      <c r="A136" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="G136" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="10" t="s">
-        <v>335</v>
+      <c r="A137" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="10" t="s">
-        <v>337</v>
+      <c r="A138" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A16" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
-    <hyperlink ref="A17" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A31" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A42" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A41" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A30" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A23" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A22" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A40" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A39" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A21" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A20" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A19" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A38" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A29" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A13" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A14" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A15" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A37" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A10" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A18" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A5" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A11" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A12" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A28" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A36" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A9" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A4" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A26" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A27" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A2" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A3" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A8" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A6" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A7" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A34" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A33" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A25" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A24" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E24" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E25" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E33" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E34" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E7" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E6" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E35" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E8" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E3" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E2" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E27" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E26" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E4" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E9" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E36" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E28" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E12" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E11" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E5" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E18" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E10" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E37" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E29" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E38" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E19" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E20" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E21" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E39" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E40" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E22" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E23" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E30" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E41" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E42" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E31" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E17" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E16" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
-    <hyperlink ref="E32" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A43" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E43" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A44" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E44" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A45" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A46" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A47" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A48" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A49" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E49" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A50" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A54" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A55" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A56" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A57" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E57" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A58" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E58" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A59" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E59" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A60" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E60" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A61" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A62" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A63" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A64" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A65" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A66" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A67" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A68" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A69" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A70" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E70" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A71" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A72" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A73" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A74" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A75" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A76" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A77" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A78" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A79" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A80" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A81" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A82" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A83" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A84" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A85" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A86" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A87" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E87" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A88" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A89" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A90" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A91" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A92" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E93" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A93" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A94" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E94" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A95" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E95" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A96" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E98" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A98" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A97" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A99" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A100" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E100" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E103" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A103" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A101" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A102" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E104" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A104" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A105" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E106" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A107" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A106" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E108" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A108" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A109" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E109" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A110" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E110" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A111" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E111" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A112" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E114" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A114" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A113" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A115" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A116" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A117" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A118" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E118" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A119" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A120" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A121" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A122" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E122" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A123" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E123" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A124" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A125" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A126" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A127" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E127" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A128" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
-    <hyperlink ref="A129" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E129" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A130" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A131" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A132" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A133" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A134" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E134" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A135" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A136" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E136" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A137" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E137" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A138" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E138" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A139" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A137" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
+    <hyperlink ref="A138" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A136" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A135" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A134" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A133" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A132" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A131" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A130" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A129" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A128" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A127" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A126" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A125" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A124" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A121" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A122" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A123" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A120" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A116" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A119" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A102" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A117" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A118" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A114" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A115" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A113" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A101" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A111" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A112" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A3" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A104" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A110" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A109" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A98" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A99" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A108" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A107" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A106" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A105" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E105" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E106" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E107" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E108" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E99" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E98" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E109" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E110" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E104" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E3" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E112" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E111" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E101" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E113" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E115" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E114" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E118" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E117" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E102" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E119" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E116" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E120" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E124" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E125" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E126" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E127" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E128" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E129" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E130" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E131" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E132" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E133" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E134" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E135" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E136" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E138" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E137" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
+    <hyperlink ref="E139" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A103" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E103" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A100" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E100" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A97" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A96" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A95" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A94" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A93" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E93" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A92" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A88" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A86" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A87" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A84" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E84" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A85" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E85" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A83" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E83" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A82" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E82" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A80" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A79" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A77" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A81" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A78" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A75" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A76" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A74" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A2" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A72" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E72" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A70" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A73" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A71" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A60" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A61" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A62" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A63" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A64" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A65" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A67" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A68" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A66" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A69" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A59" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A55" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A57" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A58" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E58" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A56" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A51" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A54" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A52" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A53" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E49" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A49" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A50" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E50" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A47" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E47" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A48" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E46" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A46" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A44" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A45" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A43" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E43" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E37" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A37" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A41" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A42" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E38" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A38" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A40" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E39" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A31" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A39" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E35" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A35" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A32" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E32" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A33" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E33" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A34" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E34" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A36" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E25" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A25" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A26" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A29" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A30" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A27" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A28" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E28" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A24" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A22" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A23" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A21" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E21" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A20" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E20" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A18" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A19" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A15" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A13" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E13" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A16" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
+    <hyperlink ref="A17" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E17" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A14" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A12" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A5" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A9" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A10" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E10" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A6" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E6" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A7" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E7" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A8" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E8" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A89" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A90" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A91" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A4" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId204"/>
+    <tablePart r:id="rId208"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759750D-F8A5-4447-861A-1590E0A6C65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC8C32-8B0B-4E5C-85FA-20D4D76C51D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="342">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.01.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return new int[]{i,j};</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,912 +348,917 @@
     <t>49. 字母异位词分组</t>
   </si>
   <si>
-    <t>List&lt;String&gt; list = hashtable.getOrDefault(key, new ArrayList&lt;String&gt;());</t>
+    <t>83. 删除排序链表中的重复元素</t>
+  </si>
+  <si>
+    <t>画手大鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王尼玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708. 循环有序列表的插入</t>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krahets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>本题的难点在于如何去除重复解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴彦祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一题五解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82. 删除排序链表中的重复元素 II</t>
+  </si>
+  <si>
+    <t>2024.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表，递归/迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负雪明烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156. 上下翻转二叉树</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，栈，模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labuladong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(window.get(cur).equals(need.get(cur))) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>734. 句子相似性</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2719. 统计整数数目</t>
+  </si>
+  <si>
+    <t>数学、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560. 和为 K 的子数组</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>前缀和、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcdull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push失败，滑动窗口需要巩固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744. 最大字符串配对数目</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>liweiwei1419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171. 拿出最少数目的魔法豆</t>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2809. 使数组和小于等于 x 的最少时间</t>
+  </si>
+  <si>
+    <t>2024.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2788. 按分隔符拆分字符串</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670. 最大交换</t>
+  </si>
+  <si>
+    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2765. 最长交替子数组</t>
+  </si>
+  <si>
+    <t>数组、枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>438. 找到字符串中所有字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2865. 美丽塔 I</t>
+  </si>
+  <si>
+    <t>2024.01.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划、单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要么加，要么改；merged.toArray(new int[merged.size()][]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2859. 计算 K 置位下标对应元素的和</t>
+  </si>
+  <si>
+    <t>2024.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer.bitCount(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2846. 边权重均等查询</t>
+  </si>
+  <si>
+    <t>2024.01.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2861. 最大合金数</t>
+  </si>
+  <si>
+    <t>2024.01.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365. 水壶问题</t>
+  </si>
+  <si>
+    <t>2024.01.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>514. 自由之路</t>
+  </si>
+  <si>
+    <t>2024.01.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ikaruga</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2808. 使循环数组所有元素相等的最少秒数</t>
+  </si>
+  <si>
+    <t>2024.01.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189.轮转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣hot100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238. 除自身以外数组的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>原地哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. 矩阵置零</t>
+  </si>
+  <si>
+    <t>用matrix第一行和第一列记录该行该列是否有0,作为标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powcai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>YouLookDeliciousC</t>
+  </si>
+  <si>
+    <t>48. 旋转图像</t>
+  </si>
+  <si>
+    <t>2024.07.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240. 搜索二维矩阵 II</t>
+  </si>
+  <si>
+    <t>注意纵横mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索二叉树思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160. 相交链表</t>
+  </si>
+  <si>
+    <t>2024.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>234. 回文链表</t>
+  </si>
+  <si>
+    <t>141. 环形链表</t>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>2024.08.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>2024.08.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138. 随机链表的复制</t>
+  </si>
+  <si>
+    <t>148. 排序链表</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 合并 K 个升序链表</t>
+  </si>
+  <si>
+    <t>146. LRU 缓存</t>
+  </si>
+  <si>
+    <t>class LRUCache extends LinkedHashMap&lt;Integer, Integer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>2024.08.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>108. 将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>230. 二叉搜索树中第 K 小的元素</t>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>114. 二叉树展开为链表</t>
+  </si>
+  <si>
+    <t>2024.08.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>437. 路径总和 III</t>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>不知道思路是怎么来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124. 二叉树中的最大路径和</t>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>994. 腐烂的橘子</t>
+  </si>
+  <si>
+    <t>2024.08.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. 课程表</t>
+  </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>2024.08.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java值传递，拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯、DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>79. 单词搜索</t>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <t>2024.08.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131. 分割回文串</t>
+  </si>
+  <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.08.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. 搜索插入位置</t>
+  </si>
+  <si>
+    <t>74. 搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>Peaceful Ishi2akaG5W</t>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>153. 寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>方法四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>2024.08.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+  </si>
+  <si>
+    <t>辅助栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+  </si>
+  <si>
+    <t>程序员吴师兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>入栈递减栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这猪脑子也懂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以空间换时间，可以使用的数据结构是栈；哨兵；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215. 数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.08.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295. 数据流的中位数</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>评论区三叶姐的回应很有意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>763. 划分字母区间</t>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+  </si>
+  <si>
+    <t>2024.08.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169. 多数元素</t>
+  </si>
+  <si>
+    <t>摩尔投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. 颜色分类</t>
+  </si>
+  <si>
+    <t>三数排序，循环不变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码没懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 下一个排列</t>
+  </si>
+  <si>
+    <t>Imageslr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+  </si>
+  <si>
+    <t>环形链表的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>2024.08.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118. 杨辉三角</t>
+  </si>
+  <si>
+    <t>198. 打家劫舍</t>
+  </si>
+  <si>
+    <t>279. 完全平方数</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量涡扇拖拉机</t>
+  </si>
+  <si>
+    <t>322. 零钱兑换</t>
+  </si>
+  <si>
+    <t>139. 单词拆分</t>
+  </si>
+  <si>
+    <t>300. 最长递增子序列</t>
+  </si>
+  <si>
+    <t>不一定是dp[n]，可能在中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152. 乘积最大子数组</t>
+  </si>
+  <si>
+    <t>2024.08.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+  </si>
+  <si>
+    <t>32. 最长有效括号</t>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+  </si>
+  <si>
+    <t>1143. 最长公共子序列</t>
+  </si>
+  <si>
+    <t>m+1 n+1问题搞清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72. 编辑距离</t>
+  </si>
+  <si>
+    <t>2024.04.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704. 二分查找</t>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>977. 有序数组的平方</t>
+  </si>
+  <si>
+    <t>2024.08.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3127. 构造相同颜色的正方形</t>
+  </si>
+  <si>
+    <t>每日一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1450. 在既定时间做作业的学生人数</t>
+  </si>
+  <si>
+    <t>差分数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>128. 最长连续序列</t>
-  </si>
-  <si>
-    <t>力扣Hot 3/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83. 删除排序链表中的重复元素</t>
-  </si>
-  <si>
-    <t>画手大鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>283. 移动零</t>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王尼玛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>708. 循环有序列表的插入</t>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 盛最多水的容器</t>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Krahets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 三数之和</t>
-  </si>
-  <si>
-    <t>⭐⭐⭐⭐⭐⭐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42. 接雨水</t>
-  </si>
-  <si>
-    <t>本题的难点在于如何去除重复解。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴彦祖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一题五解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82. 删除排序链表中的重复元素 II</t>
-  </si>
-  <si>
-    <t>2024.01.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表，递归/迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负雪明烛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>156. 上下翻转二叉树</t>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树，栈，模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 无重复字符的最长子串</t>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labuladong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(window.get(cur).equals(need.get(cur))) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>734. 句子相似性</t>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2719. 统计整数数目</t>
-  </si>
-  <si>
-    <t>数学、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>560. 和为 K 的子数组</t>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76. 最小覆盖子串</t>
-  </si>
-  <si>
-    <t>前缀和、哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单调队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mcdull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push失败，滑动窗口需要巩固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2744. 最大字符串配对数目</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53. 最大子数组和</t>
-  </si>
-  <si>
-    <t>liweiwei1419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56. 合并区间</t>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2171. 拿出最少数目的魔法豆</t>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2809. 使数组和小于等于 x 的最少时间</t>
-  </si>
-  <si>
-    <t>2024.01.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2788. 按分隔符拆分字符串</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>670. 最大交换</t>
-  </si>
-  <si>
-    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239. 滑动窗口最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2765. 最长交替子数组</t>
-  </si>
-  <si>
-    <t>数组、枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>438. 找到字符串中所有字母异位词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2865. 美丽塔 I</t>
-  </si>
-  <si>
-    <t>2024.01.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划、单调栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要么加，要么改；merged.toArray(new int[merged.size()][]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2859. 计算 K 置位下标对应元素的和</t>
-  </si>
-  <si>
-    <t>2024.01.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer.bitCount(i)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2846. 边权重均等查询</t>
-  </si>
-  <si>
-    <t>2024.01.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2861. 最大合金数</t>
-  </si>
-  <si>
-    <t>2024.01.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>365. 水壶问题</t>
-  </si>
-  <si>
-    <t>2024.01.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归、数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>514. 自由之路</t>
-  </si>
-  <si>
-    <t>2024.01.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ikaruga</t>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2808. 使循环数组所有元素相等的最少秒数</t>
-  </si>
-  <si>
-    <t>2024.01.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189.轮转数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.07.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣hot100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238. 除自身以外数组的乘积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41. 缺失的第一个正数</t>
-  </si>
-  <si>
-    <t>原地哈希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73. 矩阵置零</t>
-  </si>
-  <si>
-    <t>用matrix第一行和第一列记录该行该列是否有0,作为标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.07.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>powcai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54. 螺旋矩阵</t>
-  </si>
-  <si>
-    <t>YouLookDeliciousC</t>
-  </si>
-  <si>
-    <t>48. 旋转图像</t>
-  </si>
-  <si>
-    <t>2024.07.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240. 搜索二维矩阵 II</t>
-  </si>
-  <si>
-    <t>注意纵横mn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.07.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索二叉树思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160. 相交链表</t>
-  </si>
-  <si>
-    <t>2024.08.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206. 反转链表</t>
-  </si>
-  <si>
-    <t>234. 回文链表</t>
-  </si>
-  <si>
-    <t>141. 环形链表</t>
-  </si>
-  <si>
-    <t>142. 环形链表 II</t>
-  </si>
-  <si>
-    <t>21. 合并两个有序链表</t>
-  </si>
-  <si>
-    <t>2. 两数相加</t>
-  </si>
-  <si>
-    <t>19. 删除链表的倒数第 N 个结点</t>
-  </si>
-  <si>
-    <t>2024.08.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25. K 个一组翻转链表</t>
-  </si>
-  <si>
-    <t>2024.08.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138. 随机链表的复制</t>
-  </si>
-  <si>
-    <t>148. 排序链表</t>
-  </si>
-  <si>
-    <t>归并排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23. 合并 K 个升序链表</t>
-  </si>
-  <si>
-    <t>146. LRU 缓存</t>
-  </si>
-  <si>
-    <t>class LRUCache extends LinkedHashMap&lt;Integer, Integer&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94. 二叉树的中序遍历</t>
-  </si>
-  <si>
-    <t>104. 二叉树的最大深度</t>
-  </si>
-  <si>
-    <t>226. 翻转二叉树</t>
-  </si>
-  <si>
-    <t>101. 对称二叉树</t>
-  </si>
-  <si>
-    <t>543. 二叉树的直径</t>
-  </si>
-  <si>
-    <t>2024.08.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102. 二叉树的层序遍历</t>
-  </si>
-  <si>
-    <t>108. 将有序数组转换为二叉搜索树</t>
-  </si>
-  <si>
-    <t>98. 验证二叉搜索树</t>
-  </si>
-  <si>
-    <t>230. 二叉搜索树中第 K 小的元素</t>
-  </si>
-  <si>
-    <t>199. 二叉树的右视图</t>
-  </si>
-  <si>
-    <t>114. 二叉树展开为链表</t>
-  </si>
-  <si>
-    <t>2024.08.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105. 从前序与中序遍历序列构造二叉树</t>
-  </si>
-  <si>
-    <t>437. 路径总和 III</t>
-  </si>
-  <si>
-    <t>236. 二叉树的最近公共祖先</t>
-  </si>
-  <si>
-    <t>不知道思路是怎么来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124. 二叉树中的最大路径和</t>
-  </si>
-  <si>
-    <t>dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200. 岛屿数量</t>
-  </si>
-  <si>
-    <t>994. 腐烂的橘子</t>
-  </si>
-  <si>
-    <t>2024.08.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207. 课程表</t>
-  </si>
-  <si>
-    <t>208. 实现 Trie (前缀树)</t>
-  </si>
-  <si>
-    <t>2024.08.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46. 全排列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java值传递，拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78. 子集</t>
-  </si>
-  <si>
-    <t>17. 电话号码的字母组合</t>
-  </si>
-  <si>
-    <t>回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回溯、DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39. 组合总和</t>
-  </si>
-  <si>
-    <t>79. 单词搜索</t>
-  </si>
-  <si>
-    <t>22. 括号生成</t>
-  </si>
-  <si>
-    <t>2024.08.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131. 分割回文串</t>
-  </si>
-  <si>
-    <t>51. N 皇后</t>
-  </si>
-  <si>
-    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.08.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35. 搜索插入位置</t>
-  </si>
-  <si>
-    <t>74. 搜索二维矩阵</t>
-  </si>
-  <si>
-    <t>Peaceful Ishi2akaG5W</t>
-  </si>
-  <si>
-    <t>33. 搜索旋转排序数组</t>
-  </si>
-  <si>
-    <t>153. 寻找旋转排序数组中的最小值</t>
-  </si>
-  <si>
-    <t>4. 寻找两个正序数组的中位数</t>
-  </si>
-  <si>
-    <t>方法四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20. 有效的括号</t>
-  </si>
-  <si>
-    <t>2024.08.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>155. 最小栈</t>
-  </si>
-  <si>
-    <t>394. 字符串解码</t>
-  </si>
-  <si>
-    <t>辅助栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>739. 每日温度</t>
-  </si>
-  <si>
-    <t>程序员吴师兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84. 柱状图中最大的矩形</t>
-  </si>
-  <si>
-    <t>入栈递减栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我这猪脑子也懂了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以空间换时间，可以使用的数据结构是栈；哨兵；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215. 数组中的第K个最大元素</t>
-  </si>
-  <si>
-    <t>快速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.08.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>295. 数据流的中位数</t>
-  </si>
-  <si>
-    <t>347. 前 K 个高频元素</t>
-  </si>
-  <si>
-    <t>121. 买卖股票的最佳时机</t>
-  </si>
-  <si>
-    <t>评论区三叶姐的回应很有意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55. 跳跃游戏</t>
-  </si>
-  <si>
-    <t>45. 跳跃游戏 II</t>
-  </si>
-  <si>
-    <t>763. 划分字母区间</t>
-  </si>
-  <si>
-    <t>异或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136. 只出现一次的数字</t>
-  </si>
-  <si>
-    <t>2024.08.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>169. 多数元素</t>
-  </si>
-  <si>
-    <t>摩尔投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75. 颜色分类</t>
-  </si>
-  <si>
-    <t>三数排序，循环不变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码没懂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31. 下一个排列</t>
-  </si>
-  <si>
-    <t>Imageslr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找规律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>287. 寻找重复数</t>
-  </si>
-  <si>
-    <t>环形链表的应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kirsche</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70. 爬楼梯</t>
-  </si>
-  <si>
-    <t>2024.08.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118. 杨辉三角</t>
-  </si>
-  <si>
-    <t>198. 打家劫舍</t>
-  </si>
-  <si>
-    <t>279. 完全平方数</t>
-  </si>
-  <si>
-    <t>Hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矢量涡扇拖拉机</t>
-  </si>
-  <si>
-    <t>322. 零钱兑换</t>
-  </si>
-  <si>
-    <t>139. 单词拆分</t>
-  </si>
-  <si>
-    <t>300. 最长递增子序列</t>
-  </si>
-  <si>
-    <t>不一定是dp[n]，可能在中间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152. 乘积最大子数组</t>
-  </si>
-  <si>
-    <t>2024.08.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>416. 分割等和子集</t>
-  </si>
-  <si>
-    <t>32. 最长有效括号</t>
-  </si>
-  <si>
-    <t>62. 不同路径</t>
-  </si>
-  <si>
-    <t>64. 最小路径和</t>
-  </si>
-  <si>
-    <t>5. 最长回文子串</t>
-  </si>
-  <si>
-    <t>1143. 最长公共子序列</t>
-  </si>
-  <si>
-    <t>m+1 n+1问题搞清楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72. 编辑距离</t>
-  </si>
-  <si>
-    <t>2024.04.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704. 二分查找</t>
-  </si>
-  <si>
-    <t>27. 移除元素</t>
-  </si>
-  <si>
-    <t>977. 有序数组的平方</t>
-  </si>
-  <si>
-    <t>2024.08.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3127. 构造相同颜色的正方形</t>
-  </si>
-  <si>
-    <t>每日一题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,7 +1430,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
-    <sortCondition descending="1" ref="D1:D1048576"/>
+    <sortCondition descending="1" ref="C1:C1048576"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1707,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1750,16 +1751,19 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>338</v>
+        <v>154</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1767,2385 +1771,2403 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>340</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>338</v>
+        <v>161</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>325</v>
+        <v>331</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>331</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
+        <v>338</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>144</v>
+        <v>341</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>325</v>
+        <v>338</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>328</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>329</v>
+        <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>325</v>
+        <v>94</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>325</v>
+        <v>105</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>319</v>
+        <v>122</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>318</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>314</v>
+        <v>164</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>314</v>
+        <v>164</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>320</v>
+        <v>218</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>23</v>
+        <v>216</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>314</v>
+        <v>247</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>301</v>
+        <v>262</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>306</v>
+        <v>262</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>301</v>
+        <v>262</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>23</v>
+        <v>135</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>290</v>
+        <v>307</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>278</v>
+        <v>307</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>102</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="D37" s="8" t="s">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="10" t="s">
-        <v>273</v>
+      <c r="A38" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>272</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>269</v>
+        <v>206</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>269</v>
+        <v>206</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>264</v>
+        <v>216</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>241</v>
+        <v>256</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>230</v>
+        <v>258</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>231</v>
+        <v>267</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>232</v>
+        <v>272</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>235</v>
+        <v>271</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>233</v>
+        <v>281</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>234</v>
+        <v>286</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>236</v>
+        <v>290</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>239</v>
+        <v>291</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>235</v>
+        <v>283</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>237</v>
+        <v>303</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>235</v>
+        <v>294</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>238</v>
+        <v>309</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>240</v>
+        <v>313</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>223</v>
+        <v>307</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>228</v>
+        <v>320</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>220</v>
+        <v>40</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>221</v>
+        <v>39</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="11" t="s">
-        <v>218</v>
+      <c r="A75" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>221</v>
+        <v>45</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>219</v>
+        <v>56</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>221</v>
+        <v>57</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>215</v>
+        <v>59</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>195</v>
+        <v>61</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>217</v>
+        <v>63</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>213</v>
+        <v>65</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>214</v>
+        <v>89</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>195</v>
+        <v>86</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>212</v>
+        <v>177</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>102</v>
+        <v>195</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="4" t="s">
-        <v>193</v>
+      <c r="A88" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>334</v>
+        <v>235</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>337</v>
+        <v>255</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>334</v>
+        <v>257</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>191</v>
+        <v>263</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>182</v>
+        <v>289</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>180</v>
+        <v>300</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>181</v>
+        <v>294</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F98" s="6">
-        <v>2</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>174</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="10" t="s">
-        <v>143</v>
+      <c r="A99" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F99" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="10" t="s">
-        <v>170</v>
+      <c r="A100" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>172</v>
+        <v>23</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F101" s="6">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102" s="6">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F104" s="6">
-        <v>2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>154</v>
+      <c r="G107" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>126</v>
+        <v>187</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>116</v>
+        <v>206</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>95</v>
+        <v>206</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>100</v>
+      <c r="A117" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>28</v>
+        <v>71</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>21</v>
+      <c r="A136" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>13</v>
+      <c r="A137" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="4" t="s">
-        <v>4</v>
+      <c r="A139" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>11</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A139" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A137" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
-    <hyperlink ref="A138" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A136" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A135" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A134" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A133" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A132" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A131" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A130" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A129" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A128" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A127" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A126" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A125" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A124" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A121" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A122" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A123" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A120" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A116" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A119" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A102" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A117" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A118" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A114" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A115" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A113" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A101" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A111" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A112" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A3" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A104" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A110" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A109" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A98" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A99" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A108" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A107" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A99" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A37" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
+    <hyperlink ref="A38" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A100" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A124" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A125" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A101" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A74" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A75" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A126" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A127" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A76" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A77" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A78" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A128" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A102" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A36" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A7" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A8" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A129" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A9" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A79" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A4" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A10" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A11" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A103" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A130" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A12" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A3" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A104" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A105" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A5" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A2" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A13" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A131" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A14" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A15" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A132" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A133" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
     <hyperlink ref="A106" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A105" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E105" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="A107" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E107" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
     <hyperlink ref="E106" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E107" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E108" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E99" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E98" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E109" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E110" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E104" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E3" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E112" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E111" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E101" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E113" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E115" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E114" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E118" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E117" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E102" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E119" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E116" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E120" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E124" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E125" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E126" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E127" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E128" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E129" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E130" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E131" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E132" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E133" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E134" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E135" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E136" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E138" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E137" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
-    <hyperlink ref="E139" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A103" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E103" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A100" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E100" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A97" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A96" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A95" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A94" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A93" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E93" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A92" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A88" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A86" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A87" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A84" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E84" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A85" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E85" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A83" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E83" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A82" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E82" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A80" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A79" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A77" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A81" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A78" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A75" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A76" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A74" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A2" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A72" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E72" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A70" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A73" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A71" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A60" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A61" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A62" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A63" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A64" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A65" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A67" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A68" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A66" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A69" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A59" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A55" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A57" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A58" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E58" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A56" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A51" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A54" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A52" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A53" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E49" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A49" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A50" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E50" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A47" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E47" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A48" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E46" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A46" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A44" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A45" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A43" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E43" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E37" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A37" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A41" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A42" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E38" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A38" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A40" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E39" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A31" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A39" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E35" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A35" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A32" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E32" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A33" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E33" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A34" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E34" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A36" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E25" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A25" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A26" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A29" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A30" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A27" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A28" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E28" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A24" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A22" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A23" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A21" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E21" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A20" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E20" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A18" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A19" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A15" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A13" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E13" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A16" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
-    <hyperlink ref="A17" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E17" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A14" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A12" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A5" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A9" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A10" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E10" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A6" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E6" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A7" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E7" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A8" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E8" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A89" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A90" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A91" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A4" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="E133" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E132" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E15" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E14" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E131" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E13" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E2" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E5" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E105" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E104" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E3" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E12" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E130" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E103" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E11" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E10" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E4" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E79" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E9" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E129" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E102" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E128" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E78" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E77" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E76" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E127" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E126" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E75" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E74" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E101" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E125" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E124" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E100" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E38" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E37" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
+    <hyperlink ref="E99" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A108" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E108" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A39" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E39" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A134" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A135" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A136" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A80" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A109" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E109" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A137" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A138" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A110" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A111" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A83" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E83" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A112" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E112" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A113" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E113" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A114" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E114" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A115" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A84" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A41" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A116" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A42" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A117" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A118" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A43" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A6" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A44" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E44" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A16" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A45" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A17" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A46" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A47" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A48" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A49" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A50" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A51" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A85" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A86" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A52" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A87" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A119" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A18" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A88" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A89" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E89" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A53" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A54" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A90" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A55" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A56" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E57" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A57" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A58" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E58" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A19" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E19" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A20" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E91" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A91" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A59" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A60" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A21" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E21" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E22" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A22" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A92" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A93" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E23" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A23" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A61" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E24" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A25" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A24" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E62" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A62" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A26" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E26" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A27" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E27" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A28" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E28" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A63" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E29" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A29" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A64" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A94" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A95" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A65" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A66" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E66" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A139" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A120" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A121" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A96" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E96" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A67" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E67" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A97" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A122" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A68" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A30" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E30" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A69" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
+    <hyperlink ref="A70" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E70" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A31" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A123" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A32" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A71" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A72" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E72" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A73" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A33" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E33" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A34" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E34" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A35" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E35" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A40" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A81" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A82" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A140" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A98" r:id="rId208" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId208"/>
+    <tablePart r:id="rId209"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC8C32-8B0B-4E5C-85FA-20D4D76C51D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E364A-E766-47C0-80EB-22DDCCE63AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="344">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双指针，贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15. 三数之和</t>
   </si>
   <si>
@@ -407,10 +403,6 @@
     <t>42. 接雨水</t>
   </si>
   <si>
-    <t>本题的难点在于如何去除重复解。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴彦祖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,6 +1251,22 @@
   </si>
   <si>
     <t>快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边往中心收拢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用还是副本？lists.add(list)时，慎用list.clear()。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays.toString(charArray) 和new String(charArray) 的区别？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1430,7 +1438,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
-    <sortCondition descending="1" ref="C1:C1048576"/>
+    <sortCondition descending="1" ref="D1:D1048576"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1711,7 +1719,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1751,99 +1759,99 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="F4" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>124</v>
+        <v>336</v>
       </c>
       <c r="F5" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -1851,33 +1859,33 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -1885,19 +1893,16 @@
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -1905,747 +1910,756 @@
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>94</v>
+        <v>329</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>216</v>
+        <v>316</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>221</v>
+        <v>319</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>222</v>
+        <v>316</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>236</v>
+        <v>320</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>23</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>265</v>
+        <v>310</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>311</v>
+        <v>292</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F36" s="6">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="4" t="s">
-        <v>12</v>
+      <c r="A37" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="4" t="s">
-        <v>17</v>
+      <c r="A38" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>328</v>
+        <v>279</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>208</v>
+        <v>271</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>188</v>
+        <v>269</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>210</v>
+        <v>273</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>206</v>
+        <v>269</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>213</v>
+        <v>275</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>214</v>
+        <v>269</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>216</v>
+        <v>260</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>223</v>
+        <v>258</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>228</v>
+        <v>260</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>224</v>
+        <v>261</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>225</v>
+        <v>266</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>228</v>
+        <v>260</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>226</v>
+        <v>262</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>227</v>
+        <v>256</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>229</v>
+        <v>254</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>232</v>
+        <v>257</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>228</v>
+        <v>255</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>240</v>
+        <v>253</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
         <v>246</v>
       </c>
+      <c r="B56" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2653,425 +2667,329 @@
         <v>248</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>48</v>
+        <v>242</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="10" t="s">
-        <v>192</v>
+      <c r="A83" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3079,388 +2997,367 @@
         <v>207</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>228</v>
+        <v>204</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>228</v>
+        <v>204</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>228</v>
+        <v>204</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>235</v>
+        <v>204</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>238</v>
+        <v>199</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>95</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>243</v>
+        <v>196</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>244</v>
+        <v>197</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>95</v>
+        <v>192</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>262</v>
+        <v>192</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>261</v>
+      <c r="A93" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>283</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>283</v>
+        <v>185</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>9</v>
+      <c r="A99" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="4" t="s">
-        <v>20</v>
+      <c r="A100" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>119</v>
+        <v>168</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>152</v>
+        <v>133</v>
+      </c>
+      <c r="F106" s="6">
+        <v>2</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>153</v>
+        <v>136</v>
+      </c>
+      <c r="F107" s="6">
+        <v>2</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>48</v>
@@ -3468,702 +3365,819 @@
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>182</v>
+        <v>112</v>
+      </c>
+      <c r="F109" s="6">
+        <v>2</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>187</v>
+        <v>152</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>187</v>
+        <v>152</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>196</v>
+        <v>146</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>197</v>
+        <v>148</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>205</v>
+        <v>128</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>188</v>
+        <v>130</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>209</v>
+        <v>118</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>188</v>
+        <v>116</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="11" t="s">
-        <v>211</v>
+      <c r="A117" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>214</v>
+        <v>116</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>212</v>
+        <v>123</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>214</v>
+        <v>120</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>234</v>
+        <v>106</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>235</v>
+        <v>103</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>294</v>
+        <v>103</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>299</v>
+        <v>103</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>307</v>
+        <v>94</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>318</v>
+        <v>86</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>109</v>
+        <v>23</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>133</v>
+        <v>23</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>141</v>
+        <v>48</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>147</v>
+        <v>23</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>170</v>
+        <v>36</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>174</v>
+        <v>31</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>175</v>
+        <v>25</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>176</v>
+        <v>27</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="10" t="s">
-        <v>184</v>
+      <c r="A137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>185</v>
+        <v>22</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
-        <v>186</v>
+        <v>17</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>187</v>
+        <v>5</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="10" t="s">
-        <v>293</v>
+      <c r="A139" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="10" t="s">
-        <v>332</v>
+      <c r="A140" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>331</v>
+        <v>5</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A99" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A37" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
-    <hyperlink ref="A38" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A100" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A124" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A125" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A101" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A74" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A75" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A126" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A127" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A76" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A77" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A78" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A128" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A102" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A36" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A7" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A8" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A129" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A9" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A79" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A4" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A10" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A11" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A103" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A130" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A12" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A3" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A104" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A105" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A5" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A2" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A13" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A131" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A14" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A15" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A132" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A133" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A106" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A107" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E107" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E106" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E133" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E132" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E15" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E14" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E131" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E13" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E2" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E5" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E105" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E104" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E3" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E12" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E130" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E103" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E11" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E10" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E4" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E79" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E9" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E129" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E102" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E128" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E78" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E77" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E76" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E127" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E126" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E75" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E74" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E101" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E125" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E124" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E100" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E38" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E37" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
-    <hyperlink ref="E99" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A139" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A140" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
+    <hyperlink ref="A138" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A137" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A136" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A135" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A134" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A133" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A132" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A131" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A130" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A129" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A128" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A127" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A126" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A125" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A5" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A4" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A6" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A124" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A8" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A123" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A2" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A3" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A122" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A121" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A119" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A120" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A109" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A117" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A116" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A11" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A110" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A118" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A115" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A106" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A107" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A114" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A113" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A112" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A111" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E111" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E112" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E113" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E114" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E107" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E106" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E115" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E118" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E110" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E11" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E116" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E117" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E109" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E120" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E119" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E121" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E122" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E3" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E2" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E123" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E8" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E124" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E125" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E126" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E127" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E128" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E129" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E130" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E131" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E132" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E133" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E134" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E135" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E136" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E137" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E138" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E140" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
+    <hyperlink ref="E139" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
     <hyperlink ref="A108" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
     <hyperlink ref="E108" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A39" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E39" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A134" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A135" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A136" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A80" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A109" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E109" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A137" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A138" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A110" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A111" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A83" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E83" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A112" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E112" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A113" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E113" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A114" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E114" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A115" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A84" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A41" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A116" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A42" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A117" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A118" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A43" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A6" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A44" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E44" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A16" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A45" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A17" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A46" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A47" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A48" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A49" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A50" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A51" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A85" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A86" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A52" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A87" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A119" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A18" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A88" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A89" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E89" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A53" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A54" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A90" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A55" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A56" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E57" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A57" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A58" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E58" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A19" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E19" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A20" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E91" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A91" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A59" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A60" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A21" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E21" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E22" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A22" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A92" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A93" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E23" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A23" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A61" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E24" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A25" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A24" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E62" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A62" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A26" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E26" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A27" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E27" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A28" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E28" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A63" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E29" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A29" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A64" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A94" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A95" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A65" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A66" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E66" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A139" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A120" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A121" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A96" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E96" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A67" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E67" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A97" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A122" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A68" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A30" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E30" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A69" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
-    <hyperlink ref="A70" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E70" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A31" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A123" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A32" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A71" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A72" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E72" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A73" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A33" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E33" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A34" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E34" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A35" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E35" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A40" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A81" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A82" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A140" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A98" r:id="rId208" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="A105" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E105" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A104" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A103" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A102" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A101" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A100" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E100" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A99" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A93" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A94" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A95" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A92" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E92" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A91" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E91" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A90" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E90" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A89" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E89" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A86" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A87" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A88" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A84" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A85" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A83" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A82" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A81" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A9" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A77" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E77" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A79" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A80" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A78" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A75" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A69" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A72" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A67" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A74" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A68" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A70" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A76" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A73" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A71" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A63" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A62" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A66" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A65" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E65" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A64" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A58" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A61" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A59" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A60" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E56" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A56" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A57" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E57" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A54" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E54" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A55" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E53" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A53" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A51" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A50" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A52" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E52" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E46" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A46" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A47" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A49" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E45" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A45" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A44" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E48" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A39" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A48" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E38" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A38" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A41" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E41" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A42" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E42" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A43" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E43" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A40" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E33" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A33" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A34" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A32" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A36" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A35" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A37" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E37" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A27" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A28" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A31" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A30" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E30" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A29" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E29" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A26" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A20" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A22" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A23" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E23" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A25" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
+    <hyperlink ref="A21" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E21" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A24" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A13" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A15" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A14" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A17" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E17" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A18" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A16" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E16" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A12" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E12" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A19" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E19" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A97" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A96" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A98" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A10" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A7" r:id="rId208" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E364A-E766-47C0-80EB-22DDCCE63AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA55B8-5145-43D2-BBD5-5A8C8C55B4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.01.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Krahets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1267,6 +1263,10 @@
   </si>
   <si>
     <t>Arrays.toString(charArray) 和new String(charArray) 的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +1438,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
-    <sortCondition descending="1" ref="D1:D1048576"/>
+    <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1759,342 +1759,309 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="F2" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>341</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>343</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>337</v>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>329</v>
+        <v>339</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="F9" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="6">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
-        <v>322</v>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
-        <v>318</v>
+      <c r="A14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
+        <v>232</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>15</v>
+        <v>335</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>305</v>
+        <v>213</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>23</v>
@@ -2102,1524 +2069,1614 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>305</v>
+        <v>203</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>305</v>
+        <v>213</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>291</v>
+        <v>95</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>292</v>
+        <v>339</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>299</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>295</v>
+        <v>105</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>297</v>
+        <v>102</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>281</v>
+        <v>27</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>281</v>
+        <v>244</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>153</v>
+      <c r="A36" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>259</v>
+      <c r="A47" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>260</v>
+        <v>140</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>255</v>
+        <v>75</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>245</v>
+        <v>203</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>240</v>
+        <v>155</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>239</v>
+        <v>151</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>243</v>
+        <v>40</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>242</v>
+        <v>39</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>244</v>
+        <v>198</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>242</v>
+        <v>200</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>241</v>
+        <v>35</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>242</v>
+        <v>36</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>234</v>
+        <v>212</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>233</v>
+        <v>328</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>232</v>
+        <v>63</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>233</v>
+        <v>65</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>238</v>
+        <v>59</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>239</v>
+        <v>61</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>235</v>
+        <v>56</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>233</v>
+        <v>57</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>226</v>
+        <v>115</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>227</v>
+        <v>127</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>226</v>
+        <v>129</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>222</v>
+        <v>156</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>226</v>
+        <v>158</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>228</v>
+        <v>145</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>226</v>
+        <v>147</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>231</v>
+        <v>307</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>226</v>
+        <v>304</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>223</v>
+        <v>44</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>226</v>
+        <v>45</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>225</v>
+        <v>141</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>226</v>
+        <v>142</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>221</v>
+        <v>337</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>226</v>
+        <v>335</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>88</v>
+        <v>167</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>214</v>
+        <v>161</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>214</v>
+        <v>291</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>211</v>
+        <v>282</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>212</v>
+        <v>280</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>210</v>
+        <v>109</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>212</v>
+        <v>102</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="11" t="s">
-        <v>209</v>
+      <c r="A83" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>212</v>
+        <v>304</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>207</v>
+        <v>297</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>186</v>
+        <v>291</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>208</v>
+        <v>329</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>203</v>
+        <v>317</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>205</v>
+        <v>310</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>186</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>206</v>
+        <v>263</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>186</v>
+        <v>259</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>194</v>
+        <v>260</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="4" t="s">
-        <v>184</v>
+      <c r="A93" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>185</v>
+        <v>51</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>188</v>
+        <v>270</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>189</v>
+        <v>268</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>327</v>
+        <v>265</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>325</v>
+        <v>259</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>325</v>
+        <v>184</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>328</v>
+        <v>316</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="10" t="s">
-        <v>182</v>
+      <c r="A99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>180</v>
+        <v>99</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102" s="6">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>171</v>
+        <v>53</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>172</v>
+        <v>54</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>163</v>
+        <v>132</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F106" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" s="6">
-        <v>2</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>48</v>
+        <v>339</v>
+      </c>
+      <c r="F108" s="6">
+        <v>3</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F109" s="6">
-        <v>2</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F110" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F112" s="6">
+        <v>2</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>145</v>
+        <v>191</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+      <c r="F116" s="6">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="F117" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>93</v>
+        <v>325</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3641,543 +3698,486 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>28</v>
+        <v>291</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>21</v>
+      <c r="A137" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>13</v>
+      <c r="A138" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>9</v>
+      <c r="A139" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>13</v>
+      <c r="A140" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A139" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A140" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
-    <hyperlink ref="A138" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A137" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A136" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A135" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A134" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A133" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A132" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A131" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A130" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A129" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A128" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A127" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A126" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A125" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A5" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A4" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A6" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A124" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A8" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A99" r:id="rId2" xr:uid="{CC3DA0FD-B361-4798-9ED6-7C10268BCE86}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A32" r:id="rId5" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A106" r:id="rId6" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A61" r:id="rId7" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A59" r:id="rId8" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A72" r:id="rId9" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A93" r:id="rId10" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A103" r:id="rId11" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A66" r:id="rId12" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A64" r:id="rId13" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A63" r:id="rId14" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A46" r:id="rId15" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A50" r:id="rId16" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A2" r:id="rId17" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A108" r:id="rId18" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A17" r:id="rId19" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A135" r:id="rId20" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A75" r:id="rId21" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
     <hyperlink ref="A123" r:id="rId22" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A2" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A3" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A122" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A121" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A119" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A120" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A109" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A117" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A116" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A11" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A110" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A118" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A115" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A106" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A107" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A114" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A113" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A112" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A111" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E111" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E112" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E113" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E114" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E107" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E106" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E115" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E118" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E110" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E11" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E116" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E117" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E109" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E120" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E119" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E121" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E122" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E3" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E2" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="A9" r:id="rId23" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A27" r:id="rId24" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A100" r:id="rId25" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A134" r:id="rId26" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A31" r:id="rId27" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A82" r:id="rId28" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A102" r:id="rId29" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A126" r:id="rId30" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A67" r:id="rId31" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A117" r:id="rId32" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A58" r:id="rId33" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A130" r:id="rId34" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A68" r:id="rId35" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A112" r:id="rId36" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A116" r:id="rId37" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A49" r:id="rId38" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A74" r:id="rId39" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A70" r:id="rId40" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A120" r:id="rId41" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E120" r:id="rId42" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E70" r:id="rId43" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E74" r:id="rId44" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E49" r:id="rId45" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E116" r:id="rId46" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E112" r:id="rId47" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E68" r:id="rId48" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E130" r:id="rId49" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E58" r:id="rId50" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E117" r:id="rId51" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E67" r:id="rId52" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E126" r:id="rId53" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E102" r:id="rId54" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E82" r:id="rId55" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E31" r:id="rId56" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E134" r:id="rId57" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E100" r:id="rId58" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E27" r:id="rId59" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E9" r:id="rId60" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
     <hyperlink ref="E123" r:id="rId61" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E8" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E124" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E125" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E126" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E127" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E128" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E129" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E130" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E131" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E132" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E133" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E134" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E135" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E136" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E137" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E138" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E140" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
-    <hyperlink ref="E139" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A108" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E108" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A105" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E105" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A104" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A103" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A102" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A101" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A100" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E100" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A99" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A93" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A94" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A95" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A92" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E92" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A91" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E91" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A90" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E90" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A89" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E89" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A86" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A87" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A88" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A84" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A85" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A83" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A82" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A81" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A9" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A77" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E77" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A79" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A80" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A78" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A75" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A69" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A72" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A67" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A74" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A68" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A70" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A76" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A73" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A71" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A63" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A62" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A66" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A65" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E65" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A64" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A58" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A61" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A59" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A60" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E56" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A56" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A57" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E57" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A54" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E54" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A55" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E53" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A53" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="E75" r:id="rId62" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E135" r:id="rId63" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E50" r:id="rId64" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E46" r:id="rId65" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E63" r:id="rId66" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E64" r:id="rId67" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E66" r:id="rId68" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E103" r:id="rId69" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E93" r:id="rId70" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E59" r:id="rId72" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E61" r:id="rId73" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E106" r:id="rId74" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E32" r:id="rId75" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E12" r:id="rId76" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E6" r:id="rId77" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E99" r:id="rId78" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C03559A-A3EB-46C1-A7B5-C11200D6ABDE}"/>
+    <hyperlink ref="E14" r:id="rId79" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A69" r:id="rId80" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E69" r:id="rId81" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A79" r:id="rId82" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E79" r:id="rId83" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A77" r:id="rId84" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A76" r:id="rId85" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A78" r:id="rId86" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A92" r:id="rId87" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A111" r:id="rId88" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E111" r:id="rId89" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A73" r:id="rId90" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A36" r:id="rId91" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A57" r:id="rId92" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A97" r:id="rId93" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A125" r:id="rId94" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E125" r:id="rId95" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A113" r:id="rId96" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E113" r:id="rId97" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A107" r:id="rId98" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E107" r:id="rId99" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A60" r:id="rId100" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E60" r:id="rId101" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A33" r:id="rId102" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A43" r:id="rId103" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A55" r:id="rId104" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A22" r:id="rId105" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A23" r:id="rId106" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A47" r:id="rId107" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A40" r:id="rId108" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A37" r:id="rId109" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A62" r:id="rId110" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A20" r:id="rId111" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E20" r:id="rId112" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A26" r:id="rId113" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A53" r:id="rId114" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A25" r:id="rId115" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A137" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A5" r:id="rId117" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A52" r:id="rId118" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId119" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A114" r:id="rId120" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A8" r:id="rId122" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A139" r:id="rId123" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A54" r:id="rId124" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A39" r:id="rId125" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A10" r:id="rId126" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A7" r:id="rId127" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A101" r:id="rId128" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A56" r:id="rId129" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E56" r:id="rId130" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A16" r:id="rId131" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A42" r:id="rId132" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A140" r:id="rId133" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A44" r:id="rId134" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A45" r:id="rId135" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E105" r:id="rId136" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A105" r:id="rId137" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A132" r:id="rId138" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E132" r:id="rId139" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A35" r:id="rId140" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E35" r:id="rId141" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A94" r:id="rId142" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E133" r:id="rId143" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A133" r:id="rId144" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
     <hyperlink ref="A51" r:id="rId145" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A50" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A52" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E52" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E46" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A46" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A47" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A49" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E45" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A45" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A44" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E48" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A39" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A48" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E38" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A38" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A41" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E41" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A42" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E42" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A43" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E43" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A40" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E33" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A33" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A34" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A32" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A36" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A35" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A37" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E37" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A27" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A28" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A31" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A30" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E30" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A29" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E29" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A26" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A20" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A22" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A23" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E23" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A25" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
+    <hyperlink ref="A18" r:id="rId146" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A110" r:id="rId147" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E110" r:id="rId148" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E89" r:id="rId149" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A89" r:id="rId150" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A91" r:id="rId151" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A128" r:id="rId152" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E88" r:id="rId153" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A88" r:id="rId154" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A29" r:id="rId155" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E96" r:id="rId156" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A41" r:id="rId157" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A96" r:id="rId158" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E30" r:id="rId159" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A30" r:id="rId160" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A95" r:id="rId161" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E95" r:id="rId162" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A127" r:id="rId163" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E127" r:id="rId164" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A136" r:id="rId165" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E136" r:id="rId166" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A48" r:id="rId167" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E81" r:id="rId168" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A81" r:id="rId169" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A90" r:id="rId170" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A15" r:id="rId171" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A115" r:id="rId172" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A104" r:id="rId173" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A131" r:id="rId174" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E131" r:id="rId175" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A19" r:id="rId176" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A34" r:id="rId177" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A129" r:id="rId178" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A84" r:id="rId179" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E84" r:id="rId180" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A80" r:id="rId181" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E80" r:id="rId182" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A121" r:id="rId183" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A13" r:id="rId184" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A38" r:id="rId185" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A71" r:id="rId186" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E71" r:id="rId187" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A87" r:id="rId188" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
     <hyperlink ref="A21" r:id="rId189" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
     <hyperlink ref="E21" r:id="rId190" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A24" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A13" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A15" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A14" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A17" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E17" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A18" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A16" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E16" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A12" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E12" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A19" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E19" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A97" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A96" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A98" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A10" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A7" r:id="rId208" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="A83" r:id="rId191" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A28" r:id="rId192" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A98" r:id="rId193" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A86" r:id="rId194" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A118" r:id="rId195" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E118" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A119" r:id="rId197" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A109" r:id="rId198" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E109" r:id="rId199" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A11" r:id="rId200" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E11" r:id="rId201" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A124" r:id="rId202" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E124" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A122" r:id="rId204" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A65" r:id="rId205" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A138" r:id="rId206" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A85" r:id="rId207" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A24" r:id="rId208" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847FB76-53C8-42AC-B7D4-4EB078B91BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E1861-AF09-48CE-A385-E0B349980491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="347">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if(window.get(cur).equals(need.get(cur))) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>734. 句子相似性</t>
   </si>
   <si>
@@ -1276,6 +1272,13 @@
   <si>
     <t>代码随想录</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validCount很重要</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1448,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G141">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G142">
     <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="7">
@@ -1726,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1776,7 +1779,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1787,35 +1790,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1840,24 +1843,24 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1865,13 +1868,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1880,38 +1883,38 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1936,16 +1939,16 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1970,35 +1973,35 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2007,7 +2010,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2015,35 +2018,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2052,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2060,16 +2063,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>22</v>
@@ -2077,44 +2080,44 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2122,30 +2125,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2159,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2168,40 +2171,40 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2210,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2252,44 +2255,44 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2297,65 +2300,65 @@
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2364,57 +2367,57 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2439,44 +2442,44 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2501,114 +2504,114 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" s="6">
         <v>2</v>
@@ -2636,22 +2639,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2676,16 +2679,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
@@ -2730,13 +2733,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2758,50 +2761,50 @@
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>47</v>
@@ -2809,42 +2812,42 @@
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2869,44 +2872,44 @@
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>87</v>
@@ -2917,95 +2920,95 @@
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3019,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>109</v>
@@ -3028,114 +3031,114 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>22</v>
@@ -3143,44 +3146,44 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3205,30 +3208,30 @@
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>93</v>
@@ -3236,41 +3239,41 @@
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>12</v>
@@ -3279,10 +3282,10 @@
         <v>80</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F98" s="6">
         <v>3</v>
@@ -3302,7 +3305,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>98</v>
@@ -3316,18 +3319,18 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>107</v>
@@ -3336,16 +3339,16 @@
         <v>95</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>157</v>
+        <v>345</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F101" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3370,36 +3373,36 @@
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3424,16 +3427,16 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>93</v>
@@ -3450,27 +3453,27 @@
         <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F107" s="6">
         <v>3</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>22</v>
@@ -3478,16 +3481,16 @@
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>14</v>
@@ -3495,121 +3498,121 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F111" s="6">
         <v>2</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F115" s="6">
         <v>2</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F116" s="6">
         <v>3</v>
@@ -3617,16 +3620,16 @@
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>14</v>
@@ -3634,61 +3637,61 @@
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3710,16 +3713,16 @@
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>14</v>
@@ -3727,92 +3730,92 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="G124" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>107</v>
@@ -3821,27 +3824,27 @@
         <v>80</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E129" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>22</v>
@@ -3849,16 +3852,16 @@
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>47</v>
@@ -3866,16 +3869,16 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>93</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>36</v>
@@ -3926,57 +3929,57 @@
         <v>80</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E1861-AF09-48CE-A385-E0B349980491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7F7F6-1F99-4FDE-A5B3-B7B6794C2E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="348">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1279,6 +1279,10 @@
   </si>
   <si>
     <t>validCount很重要</t>
+  </si>
+  <si>
+    <t>2024.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1448,7 +1452,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G142">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
     <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="7">
@@ -1729,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1832,10 +1836,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
@@ -3609,13 +3616,13 @@
         <v>95</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>119</v>
       </c>
       <c r="F116" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7F7F6-1F99-4FDE-A5B3-B7B6794C2E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D5BBC-D971-4611-8A1E-62E76A931438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="353">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,6 +1282,24 @@
   </si>
   <si>
     <t>2024.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494. 目标和</t>
+  </si>
+  <si>
+    <t>01背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>474. 一和零</t>
+  </si>
+  <si>
+    <t>二维重量的01背包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1731,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3471,180 +3489,180 @@
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F111" s="6">
-        <v>2</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>191</v>
+        <v>129</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F112" s="6">
+        <v>2</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F115" s="6">
-        <v>2</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F116" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>14</v>
+        <v>119</v>
+      </c>
+      <c r="F117" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>132</v>
@@ -3655,338 +3673,372 @@
       <c r="D118" s="8" t="s">
         <v>313</v>
       </c>
+      <c r="E118" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>302</v>
+        <v>149</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>323</v>
+        <v>301</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>187</v>
+        <v>321</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>114</v>
+        <v>190</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>257</v>
+        <v>266</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>22</v>
+        <v>123</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>218</v>
+        <v>272</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>223</v>
+        <v>266</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4010,50 +4062,50 @@
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
     <hyperlink ref="A107" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A134" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A135" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
     <hyperlink ref="A75" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A122" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A123" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
     <hyperlink ref="A99" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A133" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A134" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
     <hyperlink ref="A82" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
     <hyperlink ref="A101" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A125" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A126" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
     <hyperlink ref="A67" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A116" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A117" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
     <hyperlink ref="A58" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A129" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A130" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
     <hyperlink ref="A68" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A111" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A115" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A112" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A116" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
     <hyperlink ref="A49" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
     <hyperlink ref="A74" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
     <hyperlink ref="A70" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A119" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E119" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="A120" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E120" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
     <hyperlink ref="E70" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
     <hyperlink ref="E74" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
     <hyperlink ref="E49" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E115" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E111" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E116" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E112" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
     <hyperlink ref="E68" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E129" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E130" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
     <hyperlink ref="E58" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E116" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E117" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
     <hyperlink ref="E67" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E125" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E126" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
     <hyperlink ref="E101" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
     <hyperlink ref="E82" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E133" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E134" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
     <hyperlink ref="E99" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
     <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E122" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E123" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
     <hyperlink ref="E75" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E134" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E135" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
     <hyperlink ref="E50" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
     <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
     <hyperlink ref="E63" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
@@ -4077,16 +4129,16 @@
     <hyperlink ref="A76" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
     <hyperlink ref="A78" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
     <hyperlink ref="A92" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A110" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E110" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A111" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E111" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
     <hyperlink ref="A73" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
     <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
     <hyperlink ref="A57" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
     <hyperlink ref="A97" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A124" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E124" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A112" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E112" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A125" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E125" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A113" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E113" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
     <hyperlink ref="A106" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
     <hyperlink ref="E106" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
     <hyperlink ref="A60" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
@@ -4105,14 +4157,14 @@
     <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
     <hyperlink ref="A53" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
     <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A136" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A137" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
     <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
     <hyperlink ref="A52" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
     <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A113" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A114" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
     <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
     <hyperlink ref="A8" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A138" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A139" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
     <hyperlink ref="A54" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
     <hyperlink ref="A39" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
     <hyperlink ref="A10" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
@@ -4122,26 +4174,26 @@
     <hyperlink ref="E56" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
     <hyperlink ref="A16" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
     <hyperlink ref="A42" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A139" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A140" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
     <hyperlink ref="A44" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
     <hyperlink ref="A45" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
     <hyperlink ref="E104" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
     <hyperlink ref="A104" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A131" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E131" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A132" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E132" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
     <hyperlink ref="A35" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
     <hyperlink ref="E35" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
     <hyperlink ref="A94" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E132" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A132" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="E133" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A133" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
     <hyperlink ref="A51" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
     <hyperlink ref="A18" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A109" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E109" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="A110" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E110" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
     <hyperlink ref="E89" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
     <hyperlink ref="A89" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
     <hyperlink ref="A91" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A127" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="A128" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
     <hyperlink ref="E88" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
     <hyperlink ref="A88" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
     <hyperlink ref="A29" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
@@ -4152,27 +4204,27 @@
     <hyperlink ref="A30" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
     <hyperlink ref="A95" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
     <hyperlink ref="E95" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A126" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E126" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A135" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E135" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A127" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E127" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A136" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E136" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
     <hyperlink ref="A48" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
     <hyperlink ref="E81" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
     <hyperlink ref="A81" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
     <hyperlink ref="A90" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
     <hyperlink ref="A15" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A114" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A115" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
     <hyperlink ref="A103" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A130" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E130" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A131" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E131" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
     <hyperlink ref="A19" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
     <hyperlink ref="A34" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A128" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A129" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
     <hyperlink ref="A84" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
     <hyperlink ref="E84" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
     <hyperlink ref="A80" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
     <hyperlink ref="E80" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A120" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A121" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
     <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
     <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
     <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
@@ -4184,25 +4236,29 @@
     <hyperlink ref="A28" r:id="rId190" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
     <hyperlink ref="A98" r:id="rId191" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
     <hyperlink ref="A86" r:id="rId192" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A117" r:id="rId193" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E117" r:id="rId194" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A118" r:id="rId195" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A108" r:id="rId196" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E108" r:id="rId197" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A118" r:id="rId193" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E118" r:id="rId194" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A119" r:id="rId195" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A109" r:id="rId196" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E109" r:id="rId197" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
     <hyperlink ref="A11" r:id="rId198" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
     <hyperlink ref="E11" r:id="rId199" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A123" r:id="rId200" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E123" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A121" r:id="rId202" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A124" r:id="rId200" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E124" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A122" r:id="rId202" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
     <hyperlink ref="A65" r:id="rId203" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A137" r:id="rId204" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A138" r:id="rId204" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
     <hyperlink ref="A85" r:id="rId205" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
     <hyperlink ref="A24" r:id="rId206" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
     <hyperlink ref="E98" r:id="rId207" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E108" r:id="rId208" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A108" r:id="rId209" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A141" r:id="rId210" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E141" r:id="rId211" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId208"/>
+    <tablePart r:id="rId212"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D5BBC-D971-4611-8A1E-62E76A931438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A6044E-B471-42AA-A585-FF154C4B4298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="356">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,6 +1301,17 @@
   <si>
     <t>二维重量的01背包</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518. 零钱兑换 II</t>
   </si>
 </sst>
 </file>
@@ -1468,10 +1479,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G140">
-    <sortCondition ref="A1:A1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048574" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048574" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G141">
+    <sortCondition ref="A1:A1048574"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1749,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3126,13 +3137,16 @@
         <v>308</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>302</v>
+        <v>354</v>
+      </c>
+      <c r="F87" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3452,234 +3466,234 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F107" s="6">
-        <v>3</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>340</v>
+        <v>194</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>14</v>
+        <v>337</v>
+      </c>
+      <c r="F108" s="6">
+        <v>3</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="6">
-        <v>2</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>191</v>
+        <v>129</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113" s="6">
+        <v>2</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F116" s="6">
-        <v>2</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F117" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>14</v>
+        <v>119</v>
+      </c>
+      <c r="F118" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>132</v>
@@ -3690,355 +3704,369 @@
       <c r="D119" s="8" t="s">
         <v>313</v>
       </c>
+      <c r="E119" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>302</v>
+        <v>149</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>323</v>
+        <v>301</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>187</v>
+        <v>321</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>114</v>
+        <v>190</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>257</v>
+        <v>266</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>22</v>
+        <v>123</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>218</v>
+        <v>272</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>223</v>
+        <v>266</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>14</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4060,52 +4088,52 @@
     <hyperlink ref="A46" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
     <hyperlink ref="A50" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A107" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A108" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A135" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A136" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
     <hyperlink ref="A75" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A123" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A124" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
     <hyperlink ref="A99" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A134" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A135" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
     <hyperlink ref="A82" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
     <hyperlink ref="A101" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A126" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A127" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
     <hyperlink ref="A67" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A117" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A118" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
     <hyperlink ref="A58" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A130" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A131" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
     <hyperlink ref="A68" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A112" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A116" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A113" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A117" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
     <hyperlink ref="A49" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
     <hyperlink ref="A74" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
     <hyperlink ref="A70" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A120" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E120" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="A121" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E121" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
     <hyperlink ref="E70" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
     <hyperlink ref="E74" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
     <hyperlink ref="E49" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E116" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E112" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E117" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E113" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
     <hyperlink ref="E68" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E130" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E131" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
     <hyperlink ref="E58" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E117" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E118" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
     <hyperlink ref="E67" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E126" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E127" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
     <hyperlink ref="E101" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
     <hyperlink ref="E82" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E134" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E135" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
     <hyperlink ref="E99" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
     <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E123" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E124" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
     <hyperlink ref="E75" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E135" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E136" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
     <hyperlink ref="E50" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
     <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
     <hyperlink ref="E63" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
@@ -4129,18 +4157,18 @@
     <hyperlink ref="A76" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
     <hyperlink ref="A78" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
     <hyperlink ref="A92" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A111" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E111" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A112" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E112" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
     <hyperlink ref="A73" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
     <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
     <hyperlink ref="A57" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
     <hyperlink ref="A97" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A125" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E125" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A113" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E113" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A106" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E106" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A126" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E126" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A114" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E114" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A107" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E107" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
     <hyperlink ref="A60" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
     <hyperlink ref="E60" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
     <hyperlink ref="A33" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
@@ -4157,14 +4185,14 @@
     <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
     <hyperlink ref="A53" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
     <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A137" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A138" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
     <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
     <hyperlink ref="A52" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
     <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A114" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A115" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
     <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
     <hyperlink ref="A8" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A139" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A140" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
     <hyperlink ref="A54" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
     <hyperlink ref="A39" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
     <hyperlink ref="A10" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
@@ -4174,26 +4202,26 @@
     <hyperlink ref="E56" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
     <hyperlink ref="A16" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
     <hyperlink ref="A42" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A140" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A141" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
     <hyperlink ref="A44" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
     <hyperlink ref="A45" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
     <hyperlink ref="E104" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
     <hyperlink ref="A104" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A132" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E132" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A133" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E133" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
     <hyperlink ref="A35" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
     <hyperlink ref="E35" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
     <hyperlink ref="A94" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E133" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A133" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="E134" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A134" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
     <hyperlink ref="A51" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
     <hyperlink ref="A18" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A110" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E110" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="A111" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E111" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
     <hyperlink ref="E89" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
     <hyperlink ref="A89" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
     <hyperlink ref="A91" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A128" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="A129" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
     <hyperlink ref="E88" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
     <hyperlink ref="A88" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
     <hyperlink ref="A29" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
@@ -4204,61 +4232,62 @@
     <hyperlink ref="A30" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
     <hyperlink ref="A95" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
     <hyperlink ref="E95" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A127" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E127" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A136" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E136" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A128" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E128" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A137" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E137" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
     <hyperlink ref="A48" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
     <hyperlink ref="E81" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
     <hyperlink ref="A81" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
     <hyperlink ref="A90" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
     <hyperlink ref="A15" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A115" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A116" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
     <hyperlink ref="A103" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A131" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E131" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A132" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E132" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
     <hyperlink ref="A19" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
     <hyperlink ref="A34" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A129" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A130" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
     <hyperlink ref="A84" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
     <hyperlink ref="E84" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
     <hyperlink ref="A80" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
     <hyperlink ref="E80" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A121" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A122" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
     <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
     <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
     <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
     <hyperlink ref="E71" r:id="rId185" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A87" r:id="rId186" display="https://leetcode.cn/problems/coin-change/" xr:uid="{3D1EC5B6-E4EB-4942-8243-943D02A31579}"/>
-    <hyperlink ref="A21" r:id="rId187" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E21" r:id="rId188" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A83" r:id="rId189" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A28" r:id="rId190" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A98" r:id="rId191" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A86" r:id="rId192" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A118" r:id="rId193" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E118" r:id="rId194" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A119" r:id="rId195" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A109" r:id="rId196" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E109" r:id="rId197" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A11" r:id="rId198" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E11" r:id="rId199" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A124" r:id="rId200" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E124" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A122" r:id="rId202" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A65" r:id="rId203" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A138" r:id="rId204" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A85" r:id="rId205" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A24" r:id="rId206" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E98" r:id="rId207" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E108" r:id="rId208" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A108" r:id="rId209" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A141" r:id="rId210" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E141" r:id="rId211" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A21" r:id="rId186" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E21" r:id="rId187" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A83" r:id="rId188" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A28" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A98" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A86" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A119" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E119" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A120" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A110" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E110" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E11" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A125" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E125" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A123" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A65" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A139" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A85" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A24" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E98" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E109" r:id="rId207" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A109" r:id="rId208" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A106" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E106" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A87" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A142" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId212"/>
+    <tablePart r:id="rId213"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A6044E-B471-42AA-A585-FF154C4B4298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB64F40-5CD4-4486-9D0B-20E7FD0CF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="360">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1312,20 @@
   </si>
   <si>
     <t>518. 零钱兑换 II</t>
+  </si>
+  <si>
+    <t>2024.09.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>377. 组合总和 Ⅳ</t>
+  </si>
+  <si>
+    <t>2024.09.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全背包（排列）</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1495,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048574" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048574" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G141">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G142">
     <sortCondition ref="A1:A1048574"/>
   </sortState>
   <tableColumns count="7">
@@ -1760,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2644,13 +2658,13 @@
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>119</v>
       </c>
       <c r="F58" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3588,129 +3602,126 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F113" s="6">
-        <v>2</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>162</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>191</v>
+        <v>129</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F114" s="6">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F117" s="6">
-        <v>2</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F118" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>14</v>
+        <v>119</v>
+      </c>
+      <c r="F119" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>132</v>
@@ -3721,352 +3732,372 @@
       <c r="D120" s="8" t="s">
         <v>313</v>
       </c>
+      <c r="E120" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>302</v>
+        <v>149</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>323</v>
+        <v>301</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>187</v>
+        <v>321</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>114</v>
+        <v>190</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>257</v>
+        <v>266</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>22</v>
+        <v>123</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>218</v>
+        <v>272</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>223</v>
+        <v>266</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="C142" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>354</v>
+      <c r="D143" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4090,50 +4121,50 @@
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
     <hyperlink ref="A108" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A136" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A137" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
     <hyperlink ref="A75" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A124" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A125" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
     <hyperlink ref="A99" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A135" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A136" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
     <hyperlink ref="A82" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
     <hyperlink ref="A101" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A127" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A128" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
     <hyperlink ref="A67" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A118" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A119" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
     <hyperlink ref="A58" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A131" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A132" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
     <hyperlink ref="A68" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A113" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A117" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A114" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A118" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
     <hyperlink ref="A49" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
     <hyperlink ref="A74" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
     <hyperlink ref="A70" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A121" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E121" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="A122" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E122" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
     <hyperlink ref="E70" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
     <hyperlink ref="E74" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
     <hyperlink ref="E49" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E117" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E113" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E118" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E114" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
     <hyperlink ref="E68" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E131" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E132" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
     <hyperlink ref="E58" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E118" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E119" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
     <hyperlink ref="E67" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E127" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E128" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
     <hyperlink ref="E101" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
     <hyperlink ref="E82" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E135" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E136" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
     <hyperlink ref="E99" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
     <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E124" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E125" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
     <hyperlink ref="E75" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E136" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E137" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
     <hyperlink ref="E50" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
     <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
     <hyperlink ref="E63" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
@@ -4163,10 +4194,10 @@
     <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
     <hyperlink ref="A57" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
     <hyperlink ref="A97" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A126" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E126" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A114" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E114" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A127" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E127" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A115" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E115" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
     <hyperlink ref="A107" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
     <hyperlink ref="E107" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
     <hyperlink ref="A60" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
@@ -4185,14 +4216,14 @@
     <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
     <hyperlink ref="A53" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
     <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A138" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A139" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
     <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
     <hyperlink ref="A52" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
     <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A115" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A116" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
     <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
     <hyperlink ref="A8" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A140" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A141" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
     <hyperlink ref="A54" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
     <hyperlink ref="A39" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
     <hyperlink ref="A10" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
@@ -4202,18 +4233,18 @@
     <hyperlink ref="E56" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
     <hyperlink ref="A16" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
     <hyperlink ref="A42" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A141" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A142" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
     <hyperlink ref="A44" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
     <hyperlink ref="A45" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
     <hyperlink ref="E104" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
     <hyperlink ref="A104" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A133" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E133" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A134" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E134" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
     <hyperlink ref="A35" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
     <hyperlink ref="E35" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
     <hyperlink ref="A94" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E134" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A134" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="E135" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A135" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
     <hyperlink ref="A51" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
     <hyperlink ref="A18" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
     <hyperlink ref="A111" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
@@ -4221,7 +4252,7 @@
     <hyperlink ref="E89" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
     <hyperlink ref="A89" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
     <hyperlink ref="A91" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A129" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="A130" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
     <hyperlink ref="E88" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
     <hyperlink ref="A88" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
     <hyperlink ref="A29" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
@@ -4232,27 +4263,27 @@
     <hyperlink ref="A30" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
     <hyperlink ref="A95" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
     <hyperlink ref="E95" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A128" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E128" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A137" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E137" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A129" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E129" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A138" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E138" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
     <hyperlink ref="A48" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
     <hyperlink ref="E81" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
     <hyperlink ref="A81" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
     <hyperlink ref="A90" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
     <hyperlink ref="A15" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A116" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A117" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
     <hyperlink ref="A103" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A132" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E132" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A133" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E133" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
     <hyperlink ref="A19" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
     <hyperlink ref="A34" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A130" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A131" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
     <hyperlink ref="A84" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
     <hyperlink ref="E84" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
     <hyperlink ref="A80" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
     <hyperlink ref="E80" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A122" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A123" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
     <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
     <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
     <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
@@ -4263,18 +4294,18 @@
     <hyperlink ref="A28" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
     <hyperlink ref="A98" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
     <hyperlink ref="A86" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A119" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E119" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A120" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A120" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E120" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A121" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
     <hyperlink ref="A110" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
     <hyperlink ref="E110" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
     <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
     <hyperlink ref="E11" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A125" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E125" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A123" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A126" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E126" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A124" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
     <hyperlink ref="A65" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A139" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A140" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
     <hyperlink ref="A85" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
     <hyperlink ref="A24" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
     <hyperlink ref="E98" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
@@ -4283,11 +4314,13 @@
     <hyperlink ref="A106" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
     <hyperlink ref="E106" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
     <hyperlink ref="A87" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A142" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A113" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A143" r:id="rId213" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E143" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId213"/>
+    <tablePart r:id="rId215"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB64F40-5CD4-4486-9D0B-20E7FD0CF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B92BF-9F5D-462D-94A6-DE384752CB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1495,8 +1495,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048574" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048574" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G142">
-    <sortCondition ref="A1:A1048574"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G143">
+    <sortCondition descending="1" ref="C1:C1048574"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1817,78 +1817,102 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>333</v>
+        <v>356</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>223</v>
+        <v>326</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>157</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>223</v>
+        <v>345</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>219</v>
+        <v>118</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>223</v>
+        <v>347</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+      <c r="A6" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1899,1605 +1923,1593 @@
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>230</v>
+        <v>356</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>225</v>
+        <v>319</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>223</v>
+        <v>313</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="F9" s="6">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>230</v>
+        <v>211</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
+      <c r="A12" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
+      <c r="E14" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>278</v>
+        <v>333</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>235</v>
+        <v>280</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>230</v>
+        <v>278</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
+        <v>302</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>289</v>
+        <v>257</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>204</v>
+        <v>263</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>201</v>
+        <v>257</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>205</v>
+        <v>314</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>201</v>
+        <v>342</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>331</v>
+        <v>92</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
+      <c r="G24" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>216</v>
+        <v>351</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>217</v>
+        <v>348</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>211</v>
+        <v>337</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>339</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>313</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>105</v>
+        <v>133</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>200</v>
+        <v>270</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>201</v>
+        <v>266</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>289</v>
+        <v>117</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>22</v>
+        <v>130</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4" t="s">
-        <v>181</v>
+      <c r="A36" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10" t="s">
-        <v>228</v>
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>223</v>
+        <v>347</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>209</v>
+        <v>230</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>237</v>
+        <v>212</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>236</v>
+        <v>211</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>202</v>
+        <v>309</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>183</v>
+        <v>302</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>239</v>
+        <v>201</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>241</v>
+        <v>94</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>239</v>
+        <v>337</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="11" t="s">
-        <v>206</v>
+      <c r="A47" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>209</v>
+        <v>266</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>227</v>
+        <v>251</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>233</v>
+        <v>215</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="6">
-        <v>3</v>
+        <v>201</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>35</v>
+        <v>342</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>22</v>
+        <v>109</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F62" s="6">
-        <v>2</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>66</v>
+        <v>354</v>
+      </c>
+      <c r="F63" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>324</v>
+        <v>285</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>27</v>
+        <v>130</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>115</v>
+        <v>355</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>114</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>143</v>
+        <v>317</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>180</v>
+        <v>242</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>165</v>
+        <v>337</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>170</v>
+        <v>282</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>160</v>
+        <v>332</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="6">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>343</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>302</v>
+        <v>38</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>296</v>
+        <v>65</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>326</v>
+        <v>60</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>308</v>
+        <v>55</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F87" s="6">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>260</v>
+        <v>44</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>185</v>
+        <v>259</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F98" s="6">
-        <v>3</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F99" s="6">
-        <v>2</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F101" s="6">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>278</v>
+      <c r="G103" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="10" t="s">
-        <v>29</v>
+      <c r="A105" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>14</v>
+        <v>201</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>195</v>
@@ -3506,817 +3518,808 @@
         <v>6</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F108" s="6">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>340</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>247</v>
+      <c r="A111" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>177</v>
+        <v>75</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>353</v>
+        <v>132</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>354</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F114" s="6">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>191</v>
+        <v>34</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>192</v>
+        <v>35</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>222</v>
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>223</v>
+        <v>113</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>278</v>
+        <v>156</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F118" s="6">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F119" s="6">
-        <v>4</v>
+        <v>182</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>313</v>
+        <v>176</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>302</v>
+        <v>149</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>323</v>
+        <v>111</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>322</v>
+        <v>113</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>90</v>
+        <v>289</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>187</v>
+        <v>288</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>256</v>
+      <c r="A130" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>289</v>
+        <v>69</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>294</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>84</v>
+        <v>165</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>218</v>
+        <v>327</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>325</v>
+        <v>48</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>322</v>
+        <v>50</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>226</v>
+        <v>52</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>238</v>
+        <v>29</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>239</v>
+        <v>30</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>359</v>
+        <v>86</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A12" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A32" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A105" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A61" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A59" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A72" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A93" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A102" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A66" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A64" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A63" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A46" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A50" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A108" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A137" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A75" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A125" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A99" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A136" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A82" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A101" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A128" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A67" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A119" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A58" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A132" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A68" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A114" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A118" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A49" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A74" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A70" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A122" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E122" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E70" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E74" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E49" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E118" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E114" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E68" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E132" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E58" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E119" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E67" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E128" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E101" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E82" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E136" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E99" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E125" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E75" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E137" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E50" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E63" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E64" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E66" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E102" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E93" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E72" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E59" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E61" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E105" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E32" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E12" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E14" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A69" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E69" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A79" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E79" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A77" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A76" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A78" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A92" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A112" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E112" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A73" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A57" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A97" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A127" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E127" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A115" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E115" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A107" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E107" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A60" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E60" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A33" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A43" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A55" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A22" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A23" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A47" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A40" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A37" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A62" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A20" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E20" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A53" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A139" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A52" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A116" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A8" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A141" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A54" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A39" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A10" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A105" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A39" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A103" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A129" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A142" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A115" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A83" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A88" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A140" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A141" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A87" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A85" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A84" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A131" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A112" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A6" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A26" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A9" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A143" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A15" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A95" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A77" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A45" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A126" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A128" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A61" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A4" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A124" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A116" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A5" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A2" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A133" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A30" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A31" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A132" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A135" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A118" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A123" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E123" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E118" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E135" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E132" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E31" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E30" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E133" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E34" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E2" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E5" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E116" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E124" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E4" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E61" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E128" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E126" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E24" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E45" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E77" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E95" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E15" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E143" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E112" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E131" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E84" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E85" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E87" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E141" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E140" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E88" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E83" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E115" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E142" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E129" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E103" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E39" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E105" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A117" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E117" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A59" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E59" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A137" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A136" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A138" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A91" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A121" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E121" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A134" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A130" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A113" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A119" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A96" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E96" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A122" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E122" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A120" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E120" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A114" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E114" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A108" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A81" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A58" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A106" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A44" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A111" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A110" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A48" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A3" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A42" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E42" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A11" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A56" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A10" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A74" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A38" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A55" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A36" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A68" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A37" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A76" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A100" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A57" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A80" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A102" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
     <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A100" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A56" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E56" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A16" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A42" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A142" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A44" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A45" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E104" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A104" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A134" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E134" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A35" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E35" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A94" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E135" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A135" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A51" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A18" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A111" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E111" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E89" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A89" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A91" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A130" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E88" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A88" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A29" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E96" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A41" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A96" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E30" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A30" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A95" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E95" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A129" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E129" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A138" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E138" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A48" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E81" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A81" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A90" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A15" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A117" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A103" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A133" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E133" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A19" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A34" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A131" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A84" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E84" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A80" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E80" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A123" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E71" r:id="rId185" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A21" r:id="rId186" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E21" r:id="rId187" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A83" r:id="rId188" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A28" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A98" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A86" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A120" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E120" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A121" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A110" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E110" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E11" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A126" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E126" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A124" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A65" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A140" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A85" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A24" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E98" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E109" r:id="rId207" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A109" r:id="rId208" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A106" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E106" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A87" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A113" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A143" r:id="rId213" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E143" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="A92" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A82" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E82" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A40" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A50" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A101" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A51" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A52" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E66" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A66" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A73" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E73" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A12" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E12" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A20" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E98" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A98" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A54" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A41" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A29" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E29" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E19" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A19" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A90" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A97" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E18" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A18" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A46" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E22" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A13" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A22" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E47" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A47" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A21" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E21" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A33" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E33" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A35" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E35" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A53" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E16" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A16" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A64" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A78" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A93" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A65" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A72" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E72" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A127" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A109" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A125" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A89" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E89" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A60" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E60" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A94" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A104" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A49" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A14" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E14" r:id="rId185" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A43" r:id="rId186" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E43" r:id="rId187" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A17" r:id="rId188" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A107" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A23" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A62" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A69" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E69" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A70" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A28" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E28" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A8" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E8" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A32" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E32" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A71" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A86" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A99" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A139" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A79" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E23" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E27" r:id="rId207" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A27" r:id="rId208" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A25" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E25" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A63" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A67" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A75" r:id="rId213" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E75" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B92BF-9F5D-462D-94A6-DE384752CB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5D1D0-1D20-4102-989F-C1195C5E30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="359">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.01.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>560. 和为 K 的子数组</t>
   </si>
   <si>
@@ -496,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git push失败，滑动窗口需要巩固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2744. 最大字符串配对数目</t>
   </si>
   <si>
@@ -1326,6 +1318,10 @@
   </si>
   <si>
     <t>完全背包（排列）</t>
+  </si>
+  <si>
+    <t>2024.09.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1496,7 +1492,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048574" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048574" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G143">
-    <sortCondition descending="1" ref="C1:C1048574"/>
+    <sortCondition ref="A1:A1048574"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -1776,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1817,113 +1813,89 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
       <c r="F2" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>346</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>78</v>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1931,2395 +1903,2419 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>334</v>
+        <v>91</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F9" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>211</v>
+        <v>311</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
-        <v>246</v>
+      <c r="A12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
-        <v>305</v>
+      <c r="A14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>336</v>
+        <v>148</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>311</v>
+        <v>331</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>242</v>
+        <v>209</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F23" s="6">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
+        <v>209</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F26" s="6">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>349</v>
+        <v>94</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="6">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="10" t="s">
-        <v>221</v>
+      <c r="A36" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>219</v>
+        <v>302</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>12</v>
+      <c r="A39" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>87</v>
+        <v>237</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>22</v>
+        <v>199</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="6">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>257</v>
+        <v>69</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>59</v>
+      <c r="A47" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>208</v>
+        <v>274</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>302</v>
+        <v>136</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>237</v>
+        <v>72</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>239</v>
+        <v>74</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>223</v>
+        <v>199</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>203</v>
+        <v>151</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>183</v>
+        <v>354</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>160</v>
+        <v>22</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>300</v>
+        <v>93</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>343</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>313</v>
+        <v>324</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>353</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F63" s="6">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>278</v>
+        <v>60</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>150</v>
+        <v>322</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>354</v>
+        <v>113</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>222</v>
+        <v>123</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>223</v>
+        <v>125</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>313</v>
+        <v>143</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>323</v>
+        <v>303</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>322</v>
+        <v>300</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>218</v>
+        <v>137</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>223</v>
+        <v>138</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" s="6">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>331</v>
+        <v>159</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F79" s="6">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>228</v>
+        <v>296</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>223</v>
+        <v>287</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>202</v>
+        <v>278</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>201</v>
+        <v>276</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>233</v>
+        <v>108</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>58</v>
+        <v>325</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>27</v>
+        <v>352</v>
+      </c>
+      <c r="F87" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>46</v>
+        <v>255</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>232</v>
+        <v>170</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>150</v>
+        <v>357</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>278</v>
+        <v>356</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>302</v>
+        <v>50</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>187</v>
+        <v>266</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>93</v>
+        <v>180</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>325</v>
+        <v>312</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>322</v>
+        <v>340</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F99" s="6">
+        <v>3</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>226</v>
+        <v>96</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>223</v>
+        <v>339</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="6">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>229</v>
+        <v>155</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>230</v>
+        <v>343</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="6">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="4" t="s">
-        <v>19</v>
+      <c r="A103" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="4" t="s">
-        <v>4</v>
+      <c r="A105" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>204</v>
+        <v>29</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>201</v>
+        <v>30</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>313</v>
+        <v>346</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>289</v>
+        <v>335</v>
+      </c>
+      <c r="F109" s="6">
+        <v>3</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>207</v>
+        <v>347</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>209</v>
+        <v>346</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="11" t="s">
-        <v>206</v>
+      <c r="A111" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>209</v>
+        <v>311</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="F115" s="6">
+        <v>2</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>114</v>
+        <v>187</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>185</v>
+        <v>129</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F119" s="6">
+        <v>2</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>93</v>
+        <v>118</v>
+      </c>
+      <c r="F120" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>191</v>
+        <v>315</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>289</v>
+        <v>311</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>105</v>
+        <v>188</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="4" t="s">
-        <v>181</v>
+      <c r="A130" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>182</v>
+        <v>264</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>136</v>
+        <v>287</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>127</v>
+        <v>358</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="F133" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>179</v>
+        <v>284</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>180</v>
+        <v>276</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>168</v>
+        <v>248</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>169</v>
+        <v>250</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>166</v>
+        <v>101</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>170</v>
+        <v>83</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>171</v>
+        <v>85</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>326</v>
+        <v>264</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>54</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A105" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A39" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A103" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A129" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A142" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A115" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A83" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A88" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A140" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A141" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A87" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A85" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A84" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A131" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A112" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A6" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A26" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A9" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A143" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A15" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A95" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A77" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A45" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A126" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A128" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A61" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A4" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A124" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A116" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A5" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A2" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A133" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A30" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A31" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A132" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A135" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A118" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A32" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A106" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A61" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A59" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A72" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A94" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A103" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A66" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A64" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A63" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A46" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A50" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A109" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A138" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A75" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A126" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A100" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A137" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A82" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A102" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A129" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A67" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A120" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A58" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A133" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A68" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A115" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A119" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A49" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A74" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A70" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
     <hyperlink ref="A123" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
     <hyperlink ref="E123" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E118" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E135" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E132" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E31" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E30" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E133" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E34" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E2" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E5" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E116" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E124" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E4" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E61" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E128" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E126" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E24" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E45" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E77" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E95" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E15" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E143" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E112" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E131" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E84" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E85" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E87" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E141" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E140" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E88" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E83" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E115" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E142" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E129" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E103" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E39" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E105" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A117" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E117" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A59" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E59" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A137" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A136" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A138" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A91" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A121" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E121" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A134" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A130" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A113" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A119" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A96" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E96" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A122" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E122" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A120" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E120" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A114" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E114" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A108" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A81" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A58" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A106" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A44" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A111" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A110" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A48" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A3" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A42" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E42" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A11" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A56" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A10" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A74" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A38" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A55" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A36" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A68" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A37" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A76" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A100" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A57" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A80" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A102" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="E70" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E74" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E49" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E119" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E115" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E68" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E133" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E58" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E120" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E67" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E129" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E102" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E82" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E137" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E100" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E126" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E75" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E138" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E50" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E63" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E64" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E66" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E103" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E94" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E72" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E59" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E61" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E106" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E32" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E12" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E14" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A69" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E69" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A79" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E79" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A77" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A76" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A78" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A92" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A113" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E113" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A73" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A57" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A98" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A128" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E128" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A116" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E116" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A108" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E108" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A60" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E60" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A33" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A43" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A55" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A22" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A23" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A47" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A40" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A37" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A62" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A20" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E20" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A53" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A140" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A52" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A117" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A8" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A142" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A54" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A39" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A10" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
     <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A92" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A82" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E82" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A40" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A50" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A101" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A51" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A52" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E66" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A66" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A73" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E73" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A12" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E12" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A20" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E98" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A98" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A54" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A41" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A29" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E29" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E19" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A19" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A90" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A97" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E18" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A18" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A46" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E22" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A13" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A22" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E47" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A47" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A21" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E21" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A33" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E33" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A35" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E35" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A53" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E16" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A16" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A64" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A78" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A93" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A65" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A72" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E72" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A127" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A109" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A125" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A89" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E89" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A60" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E60" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A94" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A104" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A49" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A14" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E14" r:id="rId185" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A43" r:id="rId186" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E43" r:id="rId187" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A17" r:id="rId188" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A107" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A23" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A62" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A69" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E69" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A70" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A28" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E28" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A8" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E8" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A32" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E32" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A71" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A86" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A99" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A139" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A79" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E23" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E27" r:id="rId207" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A27" r:id="rId208" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A25" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E25" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A63" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A67" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A75" r:id="rId213" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E75" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="A101" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A56" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E56" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A16" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A42" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A143" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A44" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A45" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E105" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A105" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A135" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E135" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A35" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E35" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A95" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E136" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A136" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A51" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A18" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A112" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E112" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E89" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A89" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A91" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A131" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E88" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A88" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A29" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E97" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A41" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A97" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E30" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A30" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A96" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E96" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A130" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E130" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A139" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E139" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A48" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E81" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A81" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A90" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A15" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A118" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A104" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A134" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E134" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A19" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A34" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A132" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A84" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E84" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A80" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E80" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A124" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="E71" r:id="rId185" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
+    <hyperlink ref="A21" r:id="rId186" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E21" r:id="rId187" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A83" r:id="rId188" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A28" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A99" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A86" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A121" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E121" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A122" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A111" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E111" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E11" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A127" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E127" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A125" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A65" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A141" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A85" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A24" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E99" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E110" r:id="rId207" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A110" r:id="rId208" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A107" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E107" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A87" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A114" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A93" r:id="rId213" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E93" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5D1D0-1D20-4102-989F-C1195C5E30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29708686-A6F4-47BE-9A88-F4F49DB7EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="359">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,14 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边界处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要么加，要么改；merged.toArray(new int[merged.size()][]);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2859. 计算 K 置位下标对应元素的和</t>
   </si>
   <si>
@@ -1321,6 +1313,14 @@
   </si>
   <si>
     <t>2024.09.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、动规</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1822,7 +1822,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1833,35 +1833,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1875,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1923,7 +1923,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1932,23 +1932,23 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -1957,13 +1957,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1988,16 +1988,16 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2022,7 +2022,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>148</v>
@@ -2031,26 +2031,26 @@
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2059,7 +2059,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2067,35 +2067,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2121,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>22</v>
@@ -2129,44 +2129,44 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2174,30 +2174,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2211,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2220,40 +2220,40 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2304,44 +2304,44 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2349,29 +2349,32 @@
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>180</v>
+        <v>357</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>130</v>
@@ -2380,34 +2383,34 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2416,57 +2419,57 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2491,27 +2494,27 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2553,88 +2556,88 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>130</v>
@@ -2643,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2657,7 +2660,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>118</v>
@@ -2688,22 +2691,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2728,16 +2731,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
@@ -2782,13 +2785,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2881,7 +2884,7 @@
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>130</v>
@@ -2890,13 +2893,13 @@
         <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2921,13 +2924,13 @@
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2949,16 +2952,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>87</v>
@@ -2969,41 +2972,41 @@
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3025,39 +3028,39 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3071,7 +3074,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>109</v>
@@ -3080,12 +3083,12 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>130</v>
@@ -3094,46 +3097,46 @@
         <v>80</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>130</v>
@@ -3142,21 +3145,21 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F87" s="6">
         <v>2</v>
@@ -3164,33 +3167,33 @@
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>22</v>
@@ -3198,58 +3201,58 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -3277,30 +3280,30 @@
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>93</v>
@@ -3308,41 +3311,41 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3351,10 +3354,10 @@
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -3374,7 +3377,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>98</v>
@@ -3388,13 +3391,13 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3408,7 +3411,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>110</v>
@@ -3417,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3442,7 +3445,7 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>148</v>
@@ -3451,27 +3454,27 @@
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3496,16 +3499,16 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>14</v>
@@ -3513,16 +3516,16 @@
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>93</v>
@@ -3539,27 +3542,27 @@
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>14</v>
@@ -3567,7 +3570,7 @@
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>130</v>
@@ -3576,7 +3579,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>22</v>
@@ -3584,16 +3587,16 @@
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -3601,33 +3604,33 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3635,52 +3638,49 @@
         <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F115" s="6">
-        <v>2</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>148</v>
@@ -3689,7 +3689,7 @@
         <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3703,16 +3703,13 @@
         <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>131</v>
       </c>
       <c r="F119" s="6">
-        <v>2</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3726,7 +3723,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>118</v>
@@ -3737,7 +3734,7 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>130</v>
@@ -3746,7 +3743,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>130</v>
@@ -3763,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3788,7 +3785,7 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>130</v>
@@ -3797,18 +3794,18 @@
         <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3830,7 +3827,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>130</v>
@@ -3839,7 +3836,7 @@
         <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
@@ -3847,19 +3844,19 @@
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3881,53 +3878,53 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3941,7 +3938,7 @@
         <v>80</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>122</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>148</v>
@@ -3961,7 +3958,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>22</v>
@@ -3969,16 +3966,16 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>47</v>
@@ -3986,16 +3983,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>93</v>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>36</v>
@@ -4046,57 +4043,57 @@
         <v>80</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29708686-A6F4-47BE-9A88-F4F49DB7EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758FCB91-1096-4E2A-AEED-5856EB80A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="361">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.07.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力扣hot100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1321,6 +1317,18 @@
   </si>
   <si>
     <t>贪心、动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次遍历交换，第二次遍历验证。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1822,7 +1830,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1833,35 +1841,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1875,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1889,13 +1897,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1903,13 +1911,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1923,7 +1931,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1932,23 +1940,23 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -1957,13 +1965,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1988,16 +1996,16 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2022,7 +2030,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>148</v>
@@ -2031,26 +2039,26 @@
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2059,7 +2067,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2067,35 +2075,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2104,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2112,7 +2120,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2121,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>22</v>
@@ -2129,44 +2137,44 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2174,30 +2182,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2211,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2220,40 +2228,40 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2262,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2304,44 +2312,44 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2355,7 +2363,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -2363,18 +2371,18 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>130</v>
@@ -2383,34 +2391,34 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2419,57 +2427,57 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2494,27 +2502,27 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2556,97 +2564,100 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>178</v>
+        <v>358</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2660,7 +2671,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>118</v>
@@ -2691,22 +2702,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2731,16 +2742,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
@@ -2785,13 +2796,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2884,7 +2895,7 @@
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>130</v>
@@ -2893,13 +2904,13 @@
         <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2952,16 +2963,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>87</v>
@@ -3028,39 +3039,39 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3074,7 +3085,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>109</v>
@@ -3083,12 +3094,12 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>130</v>
@@ -3097,46 +3108,46 @@
         <v>80</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>130</v>
@@ -3145,21 +3156,21 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F87" s="6">
         <v>2</v>
@@ -3167,33 +3178,33 @@
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>22</v>
@@ -3201,30 +3212,30 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3243,16 +3254,16 @@
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -3280,30 +3291,30 @@
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>93</v>
@@ -3311,41 +3322,47 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>178</v>
+        <v>358</v>
+      </c>
+      <c r="F98" s="6">
+        <v>2</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3354,10 +3371,10 @@
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -3377,7 +3394,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>98</v>
@@ -3391,13 +3408,13 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3411,7 +3428,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>110</v>
@@ -3420,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3445,7 +3462,7 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>148</v>
@@ -3454,27 +3471,27 @@
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3499,16 +3516,16 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>14</v>
@@ -3516,16 +3533,16 @@
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>93</v>
@@ -3542,27 +3559,27 @@
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>14</v>
@@ -3570,7 +3587,7 @@
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>130</v>
@@ -3579,7 +3596,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>22</v>
@@ -3587,16 +3604,16 @@
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -3621,16 +3638,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3638,13 +3655,13 @@
         <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>128</v>
@@ -3655,32 +3672,32 @@
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>148</v>
@@ -3689,7 +3706,7 @@
         <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3703,7 +3720,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>131</v>
@@ -3723,7 +3740,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>118</v>
@@ -3734,7 +3751,7 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>130</v>
@@ -3743,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -3751,7 +3768,7 @@
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>130</v>
@@ -3760,7 +3777,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3785,7 +3802,7 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>130</v>
@@ -3794,18 +3811,18 @@
         <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3827,7 +3844,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>130</v>
@@ -3836,7 +3853,7 @@
         <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
@@ -3844,19 +3861,19 @@
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="G128" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3878,53 +3895,53 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3938,7 +3955,7 @@
         <v>80</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>122</v>
@@ -3949,7 +3966,7 @@
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>148</v>
@@ -3958,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>22</v>
@@ -3966,16 +3983,16 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>47</v>
@@ -3983,16 +4000,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>93</v>
@@ -4034,7 +4051,7 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>36</v>
@@ -4043,57 +4060,57 @@
         <v>80</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758FCB91-1096-4E2A-AEED-5856EB80A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99039272-1A68-4E85-A2FC-381173F4C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="360">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1115,13 +1115,6 @@
     <t>279. 完全平方数</t>
   </si>
   <si>
-    <t>Hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矢量涡扇拖拉机</t>
-  </si>
-  <si>
     <t>322. 零钱兑换</t>
   </si>
   <si>
@@ -1329,6 +1322,10 @@
   </si>
   <si>
     <t>第一次遍历交换，第二次遍历验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,6 +1428,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1830,7 +1830,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1903,7 +1903,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1931,7 +1931,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1940,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1956,7 +1956,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -1965,13 +1965,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2058,7 +2058,7 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2067,7 +2067,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2228,12 +2228,12 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>190</v>
@@ -2242,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2363,7 +2363,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -2648,13 +2648,13 @@
         <v>179</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F57" s="6">
         <v>2</v>
@@ -2671,7 +2671,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>118</v>
@@ -2745,13 +2745,13 @@
         <v>205</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2904,13 +2904,13 @@
         <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>301</v>
+        <v>356</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2963,16 +2963,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>87</v>
@@ -3085,7 +3085,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>109</v>
@@ -3094,12 +3094,12 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>130</v>
@@ -3111,7 +3111,7 @@
         <v>297</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3133,21 +3133,21 @@
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>130</v>
@@ -3156,21 +3156,21 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F87" s="6">
         <v>2</v>
@@ -3254,16 +3254,16 @@
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -3351,18 +3351,18 @@
         <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F98" s="6">
         <v>2</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3371,10 +3371,10 @@
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>339</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -3394,7 +3394,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>98</v>
@@ -3428,7 +3428,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>110</v>
@@ -3437,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3516,16 +3516,16 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>14</v>
@@ -3559,27 +3559,27 @@
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>14</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>130</v>
@@ -3596,7 +3596,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>22</v>
@@ -3638,16 +3638,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3655,13 +3655,13 @@
         <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>128</v>
@@ -3720,7 +3720,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>131</v>
@@ -3740,7 +3740,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>118</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>130</v>
@@ -3760,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>130</v>
@@ -3777,7 +3777,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3811,18 +3811,21 @@
         <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>297</v>
+        <v>356</v>
+      </c>
+      <c r="F124" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3844,7 +3847,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>130</v>
@@ -3853,7 +3856,7 @@
         <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
@@ -3955,7 +3958,7 @@
         <v>80</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>122</v>
@@ -4082,13 +4085,13 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4300,36 +4303,36 @@
     <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
     <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
     <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="E71" r:id="rId185" xr:uid="{1F044A7C-85FD-45B7-9FCA-8FD8E7DA4BCB}"/>
-    <hyperlink ref="A21" r:id="rId186" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E21" r:id="rId187" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A83" r:id="rId188" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A28" r:id="rId189" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A99" r:id="rId190" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A86" r:id="rId191" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A121" r:id="rId192" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E121" r:id="rId193" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A122" r:id="rId194" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A111" r:id="rId195" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E111" r:id="rId196" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A11" r:id="rId197" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E11" r:id="rId198" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A127" r:id="rId199" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E127" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A125" r:id="rId201" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A65" r:id="rId202" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A141" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A85" r:id="rId204" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A24" r:id="rId205" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E99" r:id="rId206" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E110" r:id="rId207" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A110" r:id="rId208" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A107" r:id="rId209" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E107" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A87" r:id="rId211" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A114" r:id="rId212" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A93" r:id="rId213" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E93" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="A21" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E21" r:id="rId186" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A83" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A28" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A99" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A86" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A121" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E121" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A122" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A111" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E111" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A11" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E11" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A127" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E127" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A125" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A65" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A141" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A85" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A24" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E99" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E110" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A110" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A107" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E107" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A87" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A114" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A93" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E93" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E71" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99039272-1A68-4E85-A2FC-381173F4C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217183DD-5513-4536-90A7-A94B89029B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="363">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,10 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.07.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>powcai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1326,6 +1322,21 @@
   </si>
   <si>
     <t>代码随想录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(++u&gt;d)   break; 先处理，再比较</t>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1780,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1830,7 +1841,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1841,35 +1852,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1883,7 +1894,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1897,13 +1908,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1911,13 +1922,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1931,7 +1942,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1940,23 +1951,23 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -1965,13 +1976,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1996,16 +2007,16 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2030,7 +2041,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>148</v>
@@ -2039,26 +2050,26 @@
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2067,7 +2078,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2075,35 +2086,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2112,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2120,7 +2131,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2129,21 +2140,24 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>178</v>
@@ -2151,13 +2165,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>178</v>
@@ -2165,16 +2179,16 @@
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2182,30 +2196,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2219,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2228,40 +2242,40 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2270,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2312,13 +2326,13 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>178</v>
@@ -2326,30 +2340,30 @@
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2363,7 +2377,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -2371,18 +2385,18 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>130</v>
@@ -2391,34 +2405,34 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2427,32 +2441,32 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>178</v>
@@ -2460,24 +2474,24 @@
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2502,27 +2516,27 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2564,63 +2578,63 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>178</v>
@@ -2628,19 +2642,19 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2648,13 +2662,13 @@
         <v>179</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F57" s="6">
         <v>2</v>
@@ -2671,7 +2685,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>118</v>
@@ -2702,22 +2716,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2742,16 +2756,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
@@ -2796,13 +2810,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2895,7 +2909,7 @@
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>130</v>
@@ -2904,10 +2918,10 @@
         <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F71" s="6">
         <v>2</v>
@@ -2963,16 +2977,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>87</v>
@@ -3039,39 +3053,39 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3085,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>109</v>
@@ -3094,12 +3108,12 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>130</v>
@@ -3108,46 +3122,46 @@
         <v>80</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>130</v>
@@ -3156,21 +3170,21 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F87" s="6">
         <v>2</v>
@@ -3178,33 +3192,33 @@
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>22</v>
@@ -3212,30 +3226,30 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3254,16 +3268,16 @@
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -3291,30 +3305,30 @@
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>93</v>
@@ -3322,22 +3336,22 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3351,18 +3365,18 @@
         <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F98" s="6">
         <v>2</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3371,10 +3385,10 @@
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -3394,7 +3408,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>98</v>
@@ -3408,13 +3422,13 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3428,7 +3442,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>110</v>
@@ -3437,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3462,7 +3476,7 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>148</v>
@@ -3471,27 +3485,27 @@
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3516,16 +3530,16 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>14</v>
@@ -3533,16 +3547,16 @@
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>93</v>
@@ -3559,27 +3573,27 @@
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>14</v>
@@ -3587,7 +3601,7 @@
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>130</v>
@@ -3596,7 +3610,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>22</v>
@@ -3604,16 +3618,16 @@
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -3638,16 +3652,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3655,13 +3669,13 @@
         <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>128</v>
@@ -3672,32 +3686,41 @@
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>187</v>
+      <c r="F116" s="6">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>148</v>
@@ -3706,7 +3729,7 @@
         <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3720,7 +3743,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>131</v>
@@ -3740,7 +3763,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>118</v>
@@ -3751,7 +3774,7 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>130</v>
@@ -3760,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -3768,7 +3791,7 @@
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>130</v>
@@ -3777,7 +3800,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3802,7 +3825,7 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>130</v>
@@ -3811,7 +3834,7 @@
         <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F124" s="6">
         <v>2</v>
@@ -3819,13 +3842,13 @@
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3847,7 +3870,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>130</v>
@@ -3856,7 +3879,7 @@
         <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
@@ -3866,14 +3889,20 @@
       <c r="A128" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="B128" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="C128" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>185</v>
+      <c r="F128" s="6">
+        <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>183</v>
@@ -3898,53 +3927,53 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3958,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>122</v>
@@ -3969,7 +3998,7 @@
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>148</v>
@@ -3978,7 +4007,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>22</v>
@@ -3986,16 +4015,16 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>47</v>
@@ -4003,16 +4032,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>93</v>
@@ -4054,7 +4083,7 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>36</v>
@@ -4063,57 +4092,57 @@
         <v>80</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4333,7 @@
     <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
     <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
     <hyperlink ref="A21" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E21" r:id="rId186" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="E21" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
     <hyperlink ref="A83" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
     <hyperlink ref="A28" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
     <hyperlink ref="A99" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217183DD-5513-4536-90A7-A94B89029B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F08EA-4021-4FC9-ADA6-C7E1EFC9158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="364">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.07.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索二叉树思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1337,6 +1333,13 @@
   </si>
   <si>
     <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重交换 n-1-i</t>
+  </si>
+  <si>
+    <t>2024.09.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1841,7 +1844,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1852,35 +1855,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1894,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1908,13 +1911,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1922,13 +1925,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1942,7 +1945,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1951,23 +1954,23 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -1976,13 +1979,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2007,7 +2010,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>189</v>
@@ -2016,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2041,7 +2044,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>148</v>
@@ -2050,26 +2053,26 @@
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2078,7 +2081,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2086,35 +2089,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2123,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2140,7 +2143,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
@@ -2151,13 +2154,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>178</v>
@@ -2165,13 +2168,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>178</v>
@@ -2179,16 +2182,16 @@
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2196,30 +2199,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2233,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2242,12 +2245,12 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>189</v>
@@ -2256,26 +2259,26 @@
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2284,7 +2287,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2326,13 +2329,13 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>178</v>
@@ -2340,30 +2343,30 @@
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2377,7 +2380,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -2385,18 +2388,18 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>130</v>
@@ -2405,34 +2408,34 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2441,32 +2444,32 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>178</v>
@@ -2474,24 +2477,24 @@
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2516,27 +2519,33 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>260</v>
+        <v>363</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2578,63 +2587,63 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>178</v>
@@ -2642,19 +2651,19 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2662,13 +2671,13 @@
         <v>179</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F57" s="6">
         <v>2</v>
@@ -2685,7 +2694,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>118</v>
@@ -2719,16 +2728,19 @@
         <v>190</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>93</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>191</v>
@@ -2756,16 +2768,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F62" s="6">
         <v>2</v>
@@ -2810,13 +2822,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2909,7 +2921,7 @@
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>130</v>
@@ -2918,10 +2930,10 @@
         <v>80</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F71" s="6">
         <v>2</v>
@@ -2977,16 +2989,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>87</v>
@@ -3053,39 +3065,39 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3099,7 +3111,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>109</v>
@@ -3108,12 +3120,12 @@
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>130</v>
@@ -3122,46 +3134,46 @@
         <v>80</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>130</v>
@@ -3170,21 +3182,21 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F87" s="6">
         <v>2</v>
@@ -3192,33 +3204,33 @@
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>22</v>
@@ -3226,30 +3238,30 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3268,16 +3280,16 @@
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -3305,30 +3317,30 @@
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>93</v>
@@ -3336,22 +3348,22 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3365,18 +3377,18 @@
         <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F98" s="6">
         <v>2</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>12</v>
@@ -3385,10 +3397,10 @@
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -3408,7 +3420,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>98</v>
@@ -3422,13 +3434,13 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3442,7 +3454,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>110</v>
@@ -3451,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3476,7 +3488,7 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>148</v>
@@ -3485,27 +3497,27 @@
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3530,16 +3542,16 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>14</v>
@@ -3573,27 +3585,27 @@
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>14</v>
@@ -3601,7 +3613,7 @@
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>130</v>
@@ -3610,7 +3622,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>22</v>
@@ -3618,16 +3630,16 @@
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -3652,16 +3664,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3669,13 +3681,13 @@
         <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>128</v>
@@ -3689,13 +3701,13 @@
         <v>185</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>186</v>
@@ -3704,23 +3716,23 @@
         <v>2</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>148</v>
@@ -3729,7 +3741,7 @@
         <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3743,7 +3755,7 @@
         <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>131</v>
@@ -3763,7 +3775,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>118</v>
@@ -3774,7 +3786,7 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>130</v>
@@ -3783,7 +3795,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -3791,7 +3803,7 @@
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>130</v>
@@ -3800,7 +3812,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3825,7 +3837,7 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>130</v>
@@ -3834,7 +3846,7 @@
         <v>42</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F124" s="6">
         <v>2</v>
@@ -3842,13 +3854,13 @@
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3870,7 +3882,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>130</v>
@@ -3879,7 +3891,7 @@
         <v>80</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
@@ -3890,13 +3902,13 @@
         <v>182</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>184</v>
@@ -3927,53 +3939,53 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3987,7 +3999,7 @@
         <v>80</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>122</v>
@@ -3998,7 +4010,7 @@
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>148</v>
@@ -4007,7 +4019,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>22</v>
@@ -4015,16 +4027,16 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>47</v>
@@ -4032,16 +4044,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>93</v>
@@ -4083,7 +4095,7 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>36</v>
@@ -4092,57 +4104,57 @@
         <v>80</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F08EA-4021-4FC9-ADA6-C7E1EFC9158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD6E4E-D2DC-4FD3-B797-131149464EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="368">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,6 +1340,21 @@
   </si>
   <si>
     <t>2024.09.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp定义搞清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>213. 打家劫舍 II</t>
+  </si>
+  <si>
+    <t>2024.09.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1508,6 +1523,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1792,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2337,9 +2356,6 @@
       <c r="D33" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
@@ -2405,10 +2421,16 @@
         <v>130</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>295</v>
+        <v>363</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4155,6 +4177,23 @@
       </c>
       <c r="D143" s="8" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4374,10 +4413,12 @@
     <hyperlink ref="A93" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
     <hyperlink ref="E93" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
     <hyperlink ref="E71" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A144" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E144" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId215"/>
+    <tablePart r:id="rId217"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD6E4E-D2DC-4FD3-B797-131149464EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F98DCE-307F-4EBA-BDD7-B0FEC1D10D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="371">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1356,17 @@
   <si>
     <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+B=B+A 、A+B-C=B+A-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是猫</t>
   </si>
 </sst>
 </file>
@@ -1523,10 +1534,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1813,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2354,7 +2361,16 @@
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>194</v>
+        <v>368</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2488,13 +2504,13 @@
         <v>195</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>178</v>
+        <v>368</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2662,13 +2678,13 @@
         <v>196</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>178</v>
+        <v>368</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4415,10 +4431,11 @@
     <hyperlink ref="E71" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
     <hyperlink ref="A144" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
     <hyperlink ref="E144" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E33" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId217"/>
+    <tablePart r:id="rId218"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F98DCE-307F-4EBA-BDD7-B0FEC1D10D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE9EC57-D352-4D67-B308-19284785A368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="374">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力扣hot100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>238. 除自身以外数组的乘积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,10 +749,6 @@
     <t>160. 相交链表</t>
   </si>
   <si>
-    <t>2024.08.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>206. 反转链表</t>
   </si>
   <si>
@@ -1367,6 +1359,24 @@
   </si>
   <si>
     <t>我是猫</t>
+  </si>
+  <si>
+    <t>337. 打家劫舍 III</t>
+  </si>
+  <si>
+    <t>树形dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从head结点走到入环点需要走 ： a + nb， 而slow已经走了nb，那么slow再走a步就是入环点了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allen_0x4bb</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1549,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048574" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048574" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G143">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G145">
     <sortCondition ref="A1:A1048574"/>
   </sortState>
   <tableColumns count="7">
@@ -1818,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1870,7 +1880,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1881,35 +1891,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1923,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1937,13 +1947,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1951,13 +1961,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1971,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1980,23 +1990,23 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -2005,13 +2015,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2036,16 +2046,16 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2070,7 +2080,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>148</v>
@@ -2079,26 +2089,26 @@
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2107,7 +2117,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2115,35 +2125,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2152,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2160,7 +2170,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2169,7 +2179,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
@@ -2180,44 +2190,53 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>178</v>
+        <v>366</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>194</v>
+        <v>366</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2225,30 +2244,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2262,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2271,40 +2290,40 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2313,7 +2332,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2355,50 +2374,50 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="F33" s="6">
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2412,7 +2431,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -2420,18 +2439,18 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>130</v>
@@ -2440,40 +2459,40 @@
         <v>80</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F38" s="6">
         <v>2</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2482,32 +2501,32 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F43" s="6">
         <v>2</v>
@@ -2515,24 +2534,24 @@
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2557,1127 +2576,1127 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>270</v>
+        <v>365</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="6">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>134</v>
+        <v>361</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>245</v>
+        <v>74</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>213</v>
+        <v>242</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F55" s="6">
-        <v>2</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>227</v>
+        <v>366</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F57" s="6">
-        <v>2</v>
+        <v>221</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>121</v>
+        <v>353</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="F58" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
+      </c>
+      <c r="F59" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>35</v>
+        <v>361</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>22</v>
+        <v>93</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F62" s="6">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>66</v>
+        <v>315</v>
+      </c>
+      <c r="F63" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>315</v>
+        <v>58</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>313</v>
+        <v>60</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F71" s="6">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>46</v>
+        <v>352</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>175</v>
+        <v>43</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>176</v>
+        <v>44</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" s="6">
-        <v>2</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>164</v>
+        <v>324</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>165</v>
+        <v>322</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>293</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>295</v>
+        <v>331</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="6">
+        <v>2</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>317</v>
+        <v>280</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="F87" s="6">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>253</v>
+        <v>343</v>
+      </c>
+      <c r="F88" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>22</v>
+        <v>248</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>271</v>
+        <v>366</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>350</v>
+        <v>247</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>235</v>
+        <v>347</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F98" s="6">
-        <v>2</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>356</v>
+        <v>257</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F99" s="6">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="F100" s="6">
         <v>2</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>225</v>
+        <v>303</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>223</v>
+        <v>331</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" s="6">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F102" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>337</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>271</v>
+        <v>334</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="6">
+        <v>3</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>14</v>
+        <v>128</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F109" s="6">
-        <v>3</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>341</v>
+        <v>188</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>339</v>
+        <v>187</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>22</v>
+        <v>326</v>
+      </c>
+      <c r="F111" s="6">
+        <v>3</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -3685,531 +3704,548 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>344</v>
+        <v>238</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>345</v>
+        <v>243</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F115" s="6">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F116" s="6">
-        <v>2</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>215</v>
+        <v>127</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>216</v>
+        <v>350</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F117" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>271</v>
+        <v>356</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F118" s="6">
+        <v>2</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F119" s="6">
-        <v>3</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F120" s="6">
-        <v>4</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>14</v>
+        <v>131</v>
+      </c>
+      <c r="F121" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>308</v>
+        <v>117</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>304</v>
+        <v>336</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F122" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>149</v>
+        <v>305</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F124" s="6">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>314</v>
+        <v>149</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>313</v>
+        <v>147</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>90</v>
+        <v>352</v>
+      </c>
+      <c r="F126" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="C127" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F128" s="6">
-        <v>2</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>264</v>
+        <v>183</v>
+      </c>
+      <c r="F130" s="6">
+        <v>2</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>250</v>
+        <v>113</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>282</v>
+        <v>257</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F133" s="6">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>22</v>
+        <v>280</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>47</v>
+        <v>122</v>
+      </c>
+      <c r="F135" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>268</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>211</v>
+        <v>83</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>216</v>
+        <v>85</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>316</v>
+        <v>263</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>313</v>
+        <v>257</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>14</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4219,223 +4255,226 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
     <hyperlink ref="A12" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
     <hyperlink ref="A32" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A106" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A61" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A59" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A72" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A94" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A103" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A66" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A64" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A63" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A108" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A62" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A60" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A73" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A96" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A105" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A67" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A65" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A64" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
     <hyperlink ref="A46" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A50" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A51" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A109" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A111" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A138" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A75" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A126" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A140" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A76" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A128" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A100" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A137" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A102" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A139" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A82" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A102" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A129" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A67" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A120" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A58" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A133" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A68" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A115" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A119" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A49" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A74" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A70" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A123" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E123" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E70" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E74" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E49" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E119" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E115" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E68" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E133" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E58" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E120" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E67" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E129" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E102" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E82" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="A83" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A104" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A131" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A68" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A122" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A59" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A135" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A69" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A117" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A121" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A50" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A75" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A71" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A125" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E125" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E71" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E75" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E50" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E121" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E117" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E69" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E135" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E59" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E122" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E68" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E131" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E104" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E83" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E137" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E100" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E139" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E102" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
     <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E126" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E75" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E138" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E50" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E128" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E76" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E140" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E51" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
     <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E63" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E64" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E66" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E103" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E94" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E72" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E59" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E61" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E106" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E64" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E65" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E67" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E105" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E96" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E73" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E60" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E62" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E108" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
     <hyperlink ref="E32" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
     <hyperlink ref="E12" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
     <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
     <hyperlink ref="E14" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A69" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E69" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A79" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E79" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A77" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A76" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A78" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A92" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A113" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E113" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A73" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A70" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E70" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A80" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E80" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A78" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A77" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A79" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A94" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A115" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E115" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A74" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
     <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A57" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A98" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A128" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E128" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A116" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E116" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A108" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E108" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A60" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E60" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A58" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A100" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A130" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E130" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A118" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E118" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A110" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E110" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A61" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E61" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
     <hyperlink ref="A33" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
     <hyperlink ref="A43" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A55" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A56" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
     <hyperlink ref="A22" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
     <hyperlink ref="A23" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
     <hyperlink ref="A47" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
     <hyperlink ref="A40" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
     <hyperlink ref="A37" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A62" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A63" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
     <hyperlink ref="A20" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
     <hyperlink ref="E20" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
     <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A53" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A54" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
     <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A140" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A142" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
     <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A52" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A53" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
     <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A117" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A119" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
     <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
     <hyperlink ref="A8" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A142" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A54" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A144" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A55" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
     <hyperlink ref="A39" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
     <hyperlink ref="A10" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
     <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A101" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A56" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E56" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A103" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A57" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E57" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
     <hyperlink ref="A16" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
     <hyperlink ref="A42" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A143" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A145" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
     <hyperlink ref="A44" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
     <hyperlink ref="A45" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E105" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A105" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A135" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E135" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="E107" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A107" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A137" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E137" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
     <hyperlink ref="A35" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
     <hyperlink ref="E35" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A95" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E136" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A136" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A51" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A97" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E138" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A138" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A52" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
     <hyperlink ref="A18" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A112" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E112" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E89" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A89" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A91" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A131" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E88" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A88" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A114" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E114" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E91" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A91" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A93" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A133" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E89" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A89" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
     <hyperlink ref="A29" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E97" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="E99" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
     <hyperlink ref="A41" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A97" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="A99" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
     <hyperlink ref="E30" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
     <hyperlink ref="A30" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A96" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E96" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A130" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E130" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A139" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E139" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A48" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E81" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A81" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A90" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A98" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E98" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A132" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E132" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A141" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E141" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A49" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E82" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A82" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A92" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
     <hyperlink ref="A15" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A118" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A104" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A134" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E134" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A120" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A106" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A136" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E136" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
     <hyperlink ref="A19" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
     <hyperlink ref="A34" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A132" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A84" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E84" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A80" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E80" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A124" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A134" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A85" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E85" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A81" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E81" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A126" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
     <hyperlink ref="A13" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
     <hyperlink ref="A38" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A71" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A72" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
     <hyperlink ref="A21" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
     <hyperlink ref="E21" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A83" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A84" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
     <hyperlink ref="A28" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A99" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A86" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A121" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E121" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A122" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A111" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E111" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A101" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A87" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A123" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E123" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A124" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A113" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E113" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
     <hyperlink ref="A11" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
     <hyperlink ref="E11" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A127" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E127" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A125" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A65" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A141" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A85" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A129" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E129" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A127" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A66" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A143" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A86" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
     <hyperlink ref="A24" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E99" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E110" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A110" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A107" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E107" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A87" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A114" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A93" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E93" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E71" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A144" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E144" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E101" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E112" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A112" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A109" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E109" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A88" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A116" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A95" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E95" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E72" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A48" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E48" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
     <hyperlink ref="E33" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A90" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E90" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E23" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId218"/>
+    <tablePart r:id="rId221"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE9EC57-D352-4D67-B308-19284785A368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27FB74-EE8B-4275-8655-226F64195D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9" yWindow="9" windowWidth="21925" windowHeight="11605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="376">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,10 +770,6 @@
     <t>19. 删除链表的倒数第 N 个结点</t>
   </si>
   <si>
-    <t>2024.08.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25. K 个一组翻转链表</t>
   </si>
   <si>
@@ -1372,11 +1368,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从head结点走到入环点需要走 ： a + nb， 而slow已经走了nb，那么slow再走a步就是入环点了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Allen_0x4bb</t>
+  </si>
+  <si>
+    <t>从head结点走到入环点需要走 ： a + nb， 而slow已经走了nb，那么slow再走a步就是入环点了。 if(fast == null || fast.next == null)可以避免空链表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev.next = list1 == null ? list2 : list1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListNode dummy = new ListNode(-1);应付空节点或单节点</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1880,7 +1887,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1891,35 +1898,35 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1933,7 +1940,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -1947,13 +1954,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1961,13 +1968,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -1981,7 +1988,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>93</v>
@@ -1990,23 +1997,23 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -2015,13 +2022,13 @@
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2046,7 +2053,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>188</v>
@@ -2055,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2080,35 +2087,41 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>269</v>
+        <v>374</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>79</v>
@@ -2117,7 +2130,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F17" s="6">
         <v>2</v>
@@ -2125,35 +2138,35 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -2162,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>87</v>
@@ -2170,7 +2183,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>130</v>
@@ -2179,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
@@ -2193,13 +2206,13 @@
         <v>195</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F22" s="6">
         <v>2</v>
@@ -2213,10 +2226,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
@@ -2227,16 +2240,16 @@
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2244,30 +2257,30 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2281,7 +2294,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>97</v>
@@ -2290,12 +2303,12 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>188</v>
@@ -2304,26 +2317,26 @@
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -2332,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>103</v>
@@ -2380,44 +2393,44 @@
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F33" s="6">
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
@@ -2431,7 +2444,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -2445,12 +2458,18 @@
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>200</v>
+        <v>374</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>130</v>
@@ -2459,24 +2478,24 @@
         <v>80</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F38" s="6">
         <v>2</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2487,12 +2506,15 @@
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>200</v>
+        <v>374</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -2501,21 +2523,21 @@
         <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2526,7 +2548,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F43" s="6">
         <v>2</v>
@@ -2534,24 +2556,24 @@
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2579,24 +2601,30 @@
         <v>197</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>200</v>
+        <v>374</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>14</v>
@@ -2604,22 +2632,22 @@
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F49" s="6">
         <v>2</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2661,52 +2689,52 @@
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2717,7 +2745,7 @@
         <v>95</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F56" s="6">
         <v>2</v>
@@ -2725,19 +2753,19 @@
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2745,13 +2773,13 @@
         <v>178</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F58" s="6">
         <v>2</v>
@@ -2768,7 +2796,7 @@
         <v>95</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>118</v>
@@ -2808,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>93</v>
@@ -2842,16 +2870,16 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F63" s="6">
         <v>2</v>
@@ -2896,13 +2924,13 @@
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2995,7 +3023,7 @@
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>130</v>
@@ -3004,10 +3032,10 @@
         <v>80</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F72" s="6">
         <v>2</v>
@@ -3063,16 +3091,16 @@
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>87</v>
@@ -3139,39 +3167,39 @@
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3185,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>109</v>
@@ -3194,12 +3222,12 @@
         <v>2</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>130</v>
@@ -3208,46 +3236,46 @@
         <v>80</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>130</v>
@@ -3256,21 +3284,21 @@
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F88" s="6">
         <v>2</v>
@@ -3278,33 +3306,33 @@
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>14</v>
@@ -3312,16 +3340,16 @@
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>22</v>
@@ -3329,30 +3357,30 @@
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3371,16 +3399,16 @@
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>14</v>
@@ -3408,30 +3436,30 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>93</v>
@@ -3439,22 +3467,22 @@
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3468,18 +3496,18 @@
         <v>13</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F100" s="6">
         <v>2</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>12</v>
@@ -3488,10 +3516,10 @@
         <v>80</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F101" s="6">
         <v>3</v>
@@ -3511,7 +3539,7 @@
         <v>80</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>98</v>
@@ -3525,13 +3553,13 @@
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3545,7 +3573,7 @@
         <v>95</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>110</v>
@@ -3554,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3579,7 +3607,7 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>148</v>
@@ -3588,27 +3616,27 @@
         <v>13</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3633,16 +3661,16 @@
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>14</v>
@@ -3676,27 +3704,27 @@
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F111" s="6">
         <v>3</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -3704,7 +3732,7 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>130</v>
@@ -3713,7 +3741,7 @@
         <v>80</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>22</v>
@@ -3721,16 +3749,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>14</v>
@@ -3755,16 +3783,16 @@
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3772,13 +3800,13 @@
         <v>127</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>128</v>
@@ -3792,13 +3820,13 @@
         <v>184</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>185</v>
@@ -3807,23 +3835,23 @@
         <v>2</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>148</v>
@@ -3832,7 +3860,7 @@
         <v>42</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3846,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>131</v>
@@ -3866,7 +3894,7 @@
         <v>95</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>118</v>
@@ -3877,7 +3905,7 @@
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>130</v>
@@ -3886,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>14</v>
@@ -3894,7 +3922,7 @@
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>130</v>
@@ -3903,7 +3931,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3928,7 +3956,7 @@
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>130</v>
@@ -3937,7 +3965,7 @@
         <v>42</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F126" s="6">
         <v>2</v>
@@ -3945,13 +3973,13 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3973,7 +4001,7 @@
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>130</v>
@@ -3982,7 +4010,7 @@
         <v>80</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>14</v>
@@ -3993,13 +4021,13 @@
         <v>181</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>183</v>
@@ -4030,53 +4058,53 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4090,7 +4118,7 @@
         <v>80</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>122</v>
@@ -4101,7 +4129,7 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>148</v>
@@ -4110,7 +4138,7 @@
         <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>22</v>
@@ -4118,16 +4146,16 @@
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>47</v>
@@ -4135,16 +4163,16 @@
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>93</v>
@@ -4186,7 +4214,7 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>36</v>
@@ -4195,57 +4223,57 @@
         <v>80</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>128</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4471,10 +4499,11 @@
     <hyperlink ref="A90" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
     <hyperlink ref="E90" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
     <hyperlink ref="E23" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E15" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId221"/>
+    <tablePart r:id="rId222"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2024LeetCode刷题记录.xlsx
+++ b/2024LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27FB74-EE8B-4275-8655-226F64195D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FE2063-9F6B-4245-A7E1-F94249AE13E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9" yWindow="9" windowWidth="21925" windowHeight="11605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="382">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1384,6 +1384,28 @@
   </si>
   <si>
     <t>ListNode dummy = new ListNode(-1);应付空节点或单节点</t>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>2024.09.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>2024.09.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1556,7 +1578,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048574" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048574" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G145">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G147">
     <sortCondition ref="A1:A1048574"/>
   </sortState>
   <tableColumns count="7">
@@ -1835,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2107,95 +2129,95 @@
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>225</v>
+        <v>379</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>226</v>
+        <v>380</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
+        <v>220</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>242</v>
+        <v>321</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F21" s="6">
         <v>2</v>
@@ -2203,16 +2225,19 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>365</v>
+        <v>355</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="6">
         <v>2</v>
@@ -2220,61 +2245,61 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>371</v>
-      </c>
       <c r="F23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>320</v>
+        <v>365</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
+      <c r="G24" s="3" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>206</v>
+        <v>318</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>80</v>
@@ -2282,292 +2307,298 @@
       <c r="D26" s="8" t="s">
         <v>201</v>
       </c>
+      <c r="G26" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>327</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>300</v>
+        <v>94</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>301</v>
+        <v>325</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F33" s="6">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>366</v>
+        <v>26</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>279</v>
+        <v>365</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="F36" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="F37" s="6">
         <v>2</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="F38" s="6">
         <v>2</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>218</v>
+        <v>294</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>213</v>
+        <v>360</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F40" s="6">
-        <v>2</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>256</v>
+        <v>374</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" s="6">
-        <v>2</v>
+        <v>229</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>229</v>
+        <v>365</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
@@ -2578,769 +2609,757 @@
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>2</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="F49" s="6">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>134</v>
+        <v>360</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>242</v>
+        <v>74</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>210</v>
+        <v>241</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F56" s="6">
-        <v>2</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>224</v>
+        <v>365</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F58" s="6">
-        <v>2</v>
+        <v>220</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="F59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
+      </c>
+      <c r="F60" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>317</v>
+        <v>191</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>314</v>
+        <v>360</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F63" s="6">
         <v>2</v>
       </c>
+      <c r="G63" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>61</v>
+        <v>378</v>
+      </c>
+      <c r="F65" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>312</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>310</v>
+        <v>64</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>116</v>
+        <v>312</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F72" s="6">
-        <v>2</v>
+        <v>154</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>175</v>
+        <v>295</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>176</v>
+        <v>351</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F74" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>140</v>
+        <v>47</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" s="6">
-        <v>2</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>164</v>
+        <v>137</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>165</v>
+        <v>138</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>160</v>
+        <v>323</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>162</v>
+        <v>321</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" s="6">
-        <v>2</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>286</v>
+        <v>109</v>
+      </c>
+      <c r="F85" s="6">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>314</v>
+        <v>292</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>301</v>
+        <v>279</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F88" s="6">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>14</v>
+        <v>342</v>
+      </c>
+      <c r="F90" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>246</v>
@@ -3351,414 +3370,414 @@
       <c r="D91" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>22</v>
+      <c r="E91" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>268</v>
+        <v>365</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>246</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>247</v>
       </c>
+      <c r="E93" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>239</v>
+        <v>345</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>232</v>
+        <v>346</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F100" s="6">
-        <v>2</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>353</v>
+        <v>256</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F101" s="6">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="F102" s="6">
         <v>2</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>222</v>
+        <v>302</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>220</v>
+        <v>330</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F103" s="6">
+        <v>3</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F104" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>334</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>268</v>
+        <v>333</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" s="6">
+        <v>3</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>340</v>
+        <v>238</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>14</v>
+        <v>128</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F111" s="6">
-        <v>3</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>337</v>
+        <v>186</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>336</v>
+        <v>187</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>22</v>
+        <v>325</v>
+      </c>
+      <c r="F113" s="6">
+        <v>3</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>14</v>
@@ -3766,500 +3785,512 @@
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>341</v>
+        <v>237</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>342</v>
+        <v>242</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>349</v>
+        <v>172</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F117" s="6">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F118" s="6">
-        <v>2</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>212</v>
+        <v>127</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>213</v>
+        <v>349</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>268</v>
+        <v>355</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F120" s="6">
+        <v>2</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F121" s="6">
-        <v>3</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F122" s="6">
-        <v>4</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>14</v>
+        <v>131</v>
+      </c>
+      <c r="F123" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>305</v>
+        <v>117</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>301</v>
+        <v>335</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F124" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F126" s="6">
-        <v>2</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>311</v>
+        <v>149</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>310</v>
+        <v>147</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>90</v>
+        <v>351</v>
+      </c>
+      <c r="F128" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F130" s="6">
-        <v>2</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>261</v>
+        <v>183</v>
+      </c>
+      <c r="F132" s="6">
+        <v>2</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>247</v>
+        <v>113</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F135" s="6">
-        <v>2</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>22</v>
+        <v>279</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>47</v>
+        <v>122</v>
+      </c>
+      <c r="F137" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>265</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>208</v>
+        <v>83</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>213</v>
+        <v>85</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>313</v>
+        <v>262</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>310</v>
+        <v>256</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>213</v>
@@ -4267,12 +4298,34 @@
     </row>
     <row r="145" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D145" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4282,228 +4335,231 @@
     <hyperlink ref="A14" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
     <hyperlink ref="A12" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A32" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A108" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A62" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A60" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A73" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A96" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A105" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A67" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A65" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A64" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A46" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A51" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A33" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A110" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A64" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A61" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A75" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A98" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A107" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A69" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A67" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A66" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A47" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A52" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A111" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A17" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A140" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A76" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A128" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A113" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A142" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A78" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A130" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A9" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A102" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A139" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A83" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A104" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A131" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A68" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A122" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A59" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A135" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A69" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A117" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A121" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A50" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A75" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A71" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A125" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E125" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E71" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E75" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E50" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E121" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E117" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E69" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E135" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E59" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E122" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E68" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E131" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E104" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E83" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E31" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E139" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E102" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E27" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A104" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A141" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A32" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A85" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A106" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A133" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A70" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A124" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A60" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A137" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A71" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A119" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A123" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A51" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A77" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A73" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A127" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E127" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E73" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E77" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E51" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E123" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E119" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E71" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E137" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E60" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E124" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E70" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E133" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E106" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E85" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E32" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E141" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E104" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E28" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E9" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E128" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E76" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E140" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E51" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E46" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E64" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E65" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E67" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E105" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E96" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E73" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E60" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E62" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E108" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E32" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E130" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E78" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E142" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E52" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E47" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E69" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E107" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E98" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E75" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E61" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E64" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E110" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E33" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
     <hyperlink ref="E12" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
     <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
     <hyperlink ref="E14" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A70" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E70" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E80" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A78" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A77" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A79" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A94" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A115" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E115" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A74" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A36" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A58" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A100" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A130" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E130" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A118" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E118" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A110" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E110" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A61" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E61" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A33" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A43" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A56" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A22" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A23" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A47" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A40" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A37" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A63" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A20" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E20" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A26" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A54" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A25" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A142" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A72" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E72" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A82" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A80" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A79" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A81" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A96" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A117" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E117" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A76" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A37" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A59" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A102" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A132" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E132" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A120" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E120" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A112" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E112" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A63" r:id="rId98" display="https://leetcode.c